--- a/HSK4 上.xlsx
+++ b/HSK4 上.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\Documentos\汉语\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\Documentos\汉语\HSK FLASHCARDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BEEB0-06DE-43C0-974E-AC66B6B085C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456C2D9-0AA0-4084-8837-D17FC20F4102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{73A2A08D-B897-4CCA-BE86-89B18BAB90D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{73A2A08D-B897-4CCA-BE86-89B18BAB90D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HSK4 上" sheetId="1" r:id="rId1"/>
     <sheet name="HSK ALL" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="2026">
   <si>
     <t>法律</t>
   </si>
@@ -5860,13 +5860,268 @@
   </si>
   <si>
     <t>a place to sit; CL:个</t>
+  </si>
+  <si>
+    <t>yao1qing3 v. to invite</t>
+  </si>
+  <si>
+    <t>pu2tao n. grape</t>
+  </si>
+  <si>
+    <t>yi4shu4 n. art</t>
+  </si>
+  <si>
+    <t>guang3gao4 n. advertisment</t>
+  </si>
+  <si>
+    <t>wei4dao4 n. taste</t>
+  </si>
+  <si>
+    <t>you1dian3 n. merit</t>
+  </si>
+  <si>
+    <t>shi2ji4 n. reality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kao3lv v. to consider </t>
+  </si>
+  <si>
+    <t>biao1zhun3 n. standard</t>
+  </si>
+  <si>
+    <t>yang4zi n. look, appereance</t>
+  </si>
+  <si>
+    <t>nian2ling2 n. age</t>
+  </si>
+  <si>
+    <t>lang4fei4 v. to waste</t>
+  </si>
+  <si>
+    <t>gou4wu4 to shop, to buy things</t>
+  </si>
+  <si>
+    <t>you2qi2 adv. Especially</t>
+  </si>
+  <si>
+    <t>shou4dao4 v. to receive</t>
+  </si>
+  <si>
+    <t>ren4he2 v. to receive</t>
+  </si>
+  <si>
+    <t>ji4 v. to mail, to send</t>
+  </si>
+  <si>
+    <t>guo3zhi1 n. fruit juice</t>
+  </si>
+  <si>
+    <t>shou4huo4yuan2 n. salesperson</t>
+  </si>
+  <si>
+    <t>wa4zi n. socks</t>
+  </si>
+  <si>
+    <t>da3rao3 v. to disturb, to bother</t>
+  </si>
+  <si>
+    <t>jing4ran2 adv. Indicating unexpectedness</t>
+  </si>
+  <si>
+    <t>xi1hong2shi4 n. tomato</t>
+  </si>
+  <si>
+    <t>bai3fen1zhi1 percent</t>
+  </si>
+  <si>
+    <t>bei4 m. times, -fold</t>
+  </si>
+  <si>
+    <t>pi2fu1 n. skin</t>
+  </si>
+  <si>
+    <t>hao3chu4 n. benefit, advantage</t>
+  </si>
+  <si>
+    <t>chang2 v. to taste</t>
+  </si>
+  <si>
+    <t>qing1 adj. light, of light weigth</t>
+  </si>
+  <si>
+    <t>fang1mian4 n. aspect</t>
+  </si>
+  <si>
+    <t>zhi2de2 v. to be worth</t>
+  </si>
+  <si>
+    <t>huo2dong4 n. activity, event</t>
+  </si>
+  <si>
+    <t>nei4 n. in, within</t>
+  </si>
+  <si>
+    <t>mian3fei4 v. free of charge</t>
+  </si>
+  <si>
+    <t>xiu1li3 v. to repair, to mend</t>
+  </si>
+  <si>
+    <t>zhi1chi2 v. to support</t>
+  </si>
+  <si>
+    <t>ju3xing2 v. to hold (a meeting, event, etc)</t>
+  </si>
+  <si>
+    <t>man3 v. to reach a quota or limit</t>
+  </si>
+  <si>
+    <t>qi2zhong1 n. among (which, them, etc.)</t>
+  </si>
+  <si>
+    <t>hui4yuan2ka3 n. membership card</t>
+  </si>
+  <si>
+    <t>huo4de2 v. to get, to obtain</t>
+  </si>
+  <si>
+    <t>xiao3shuo1 n. novel, fiction</t>
+  </si>
+  <si>
+    <t>suo3you3 adj. all</t>
+  </si>
+  <si>
+    <t>会员卡</t>
+  </si>
+  <si>
+    <t>qing2kuang4 n. situation, circumstances</t>
+  </si>
+  <si>
+    <t>li4ru2 v. for example</t>
+  </si>
+  <si>
+    <t>ju3ban4 v. to hold, to conduct</t>
+  </si>
+  <si>
+    <t>ge4 pron. Various, different</t>
+  </si>
+  <si>
+    <t>jiang4di1 v. to lower, to reduce</t>
+  </si>
+  <si>
+    <t>liu2xie3 v. to bleed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca1 v. to wipe </t>
+  </si>
+  <si>
+    <t>qi4hou4 n. climate</t>
+  </si>
+  <si>
+    <t>gu1ji4 v. to estimate, to reckon</t>
+  </si>
+  <si>
+    <t>ke2sou v. to cough</t>
+  </si>
+  <si>
+    <t>yan2zhong4 adj. serious, grave</t>
+  </si>
+  <si>
+    <t>chuang1hu n. window</t>
+  </si>
+  <si>
+    <t>kong1qi4 n. air</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>chou1yan1</t>
+  </si>
+  <si>
+    <t>dong4zuo4</t>
+  </si>
+  <si>
+    <t>shai4 adj. handsome</t>
+  </si>
+  <si>
+    <t>chu1xian4 v. to appear, to emerge</t>
+  </si>
+  <si>
+    <t>huo4hui3 v. regret</t>
+  </si>
+  <si>
+    <t>lai2bu4ji2 v. to have not enough time to, to be too late to</t>
+  </si>
+  <si>
+    <t>fan3dui4 v. to oppose, to object to</t>
+  </si>
+  <si>
+    <t>dai4fu n. doctor</t>
+  </si>
+  <si>
+    <t>zhi2wu4 n. plant</t>
+  </si>
+  <si>
+    <t>yan2jiu1 v. to study, to do research</t>
+  </si>
+  <si>
+    <t>chao1guo4 v. to exceed, to surpass</t>
+  </si>
+  <si>
+    <t>san4bu4 v. to take a walk</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>yao4shi conj. If, supposing (like 如果 but to express desire)</t>
+  </si>
+  <si>
+    <t>shuo1ming2 v. to explain, to show</t>
+  </si>
+  <si>
+    <t>shu4zi4 n. number</t>
+  </si>
+  <si>
+    <t>jiao4shou4 n. proffesor</t>
+  </si>
+  <si>
+    <t>jing1shen2 n. spirit, mind</t>
+  </si>
+  <si>
+    <t>zhi3 v. to refer to</t>
+  </si>
+  <si>
+    <t>ji4 adv. (used together with 又）both… and</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>diao4. v. used after cetain verbs to indicate the result of an action</t>
+  </si>
+  <si>
+    <t>fan2nao3 adj. worried, vexed</t>
+  </si>
+  <si>
+    <t>gan3qing2 n. affection, love</t>
+  </si>
+  <si>
+    <t>du4zi n. belly, stomach</t>
+  </si>
+  <si>
+    <t>xin1ku3 adj. hard, toilsome</t>
+  </si>
+  <si>
+    <t>jian3fei2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5886,6 +6141,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5909,7 +6170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5923,6 +6184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6315,16 +6577,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D80935-AB2E-4F2C-90FE-A22AA19EBC3D}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScale="208" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="163" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -6332,7 +6594,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -6340,7 +6602,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -6348,7 +6610,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -6356,7 +6618,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -6364,7 +6626,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -6372,7 +6634,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -6380,7 +6642,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -6388,7 +6650,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -6396,7 +6658,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -6404,7 +6666,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
@@ -6412,7 +6674,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -6420,7 +6682,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
@@ -6428,7 +6690,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -6436,7 +6698,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
@@ -6444,7 +6706,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
@@ -6452,7 +6714,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
@@ -6460,7 +6722,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
@@ -6468,7 +6730,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
@@ -6476,7 +6738,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
@@ -6484,7 +6746,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
@@ -6492,7 +6754,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
@@ -6500,7 +6762,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
@@ -6508,7 +6770,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
@@ -6516,7 +6778,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B25" t="s">
@@ -6524,7 +6786,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
@@ -6532,7 +6794,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
@@ -6540,7 +6802,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
@@ -6548,7 +6810,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
@@ -6556,7 +6818,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
@@ -6564,7 +6826,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
@@ -6572,7 +6834,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B32" t="s">
@@ -6580,7 +6842,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B33" t="s">
@@ -6588,7 +6850,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B34" t="s">
@@ -6596,7 +6858,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B35" t="s">
@@ -6604,7 +6866,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
@@ -6612,7 +6874,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B37" t="s">
@@ -6620,7 +6882,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B38" t="s">
@@ -6628,7 +6890,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B39" t="s">
@@ -6636,7 +6898,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B40" t="s">
@@ -6644,7 +6906,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B41" t="s">
@@ -6652,7 +6914,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
@@ -6660,7 +6922,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B43" t="s">
@@ -6668,7 +6930,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
@@ -6676,7 +6938,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
@@ -6684,7 +6946,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
@@ -6692,7 +6954,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
@@ -6700,7 +6962,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B48" t="s">
@@ -6708,7 +6970,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
@@ -6716,7 +6978,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B50" t="s">
@@ -6724,7 +6986,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
@@ -6732,7 +6994,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B52" t="s">
@@ -6740,7 +7002,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
@@ -6748,7 +7010,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B54" t="s">
@@ -6756,7 +7018,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
@@ -6764,7 +7026,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B56" t="s">
@@ -6772,7 +7034,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
@@ -6780,7 +7042,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -6788,7 +7050,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -6796,7 +7058,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -6804,7 +7066,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B61" t="s">
@@ -6812,7 +7074,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B62" t="s">
@@ -6820,7 +7082,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B63" t="s">
@@ -6828,7 +7090,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B64" t="s">
@@ -6836,7 +7098,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B65" t="s">
@@ -6844,7 +7106,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B66" t="s">
@@ -6852,7 +7114,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B67" t="s">
@@ -6860,7 +7122,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B68" t="s">
@@ -6868,7 +7130,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B69" t="s">
@@ -6876,7 +7138,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B70" t="s">
@@ -6884,7 +7146,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B71" t="s">
@@ -6892,7 +7154,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B72" t="s">
@@ -6900,7 +7162,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
@@ -6908,7 +7170,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B74" t="s">
@@ -6916,7 +7178,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B75" t="s">
@@ -6924,7 +7186,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B76" t="s">
@@ -6932,7 +7194,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B77" t="s">
@@ -6940,7 +7202,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B78" t="s">
@@ -6948,7 +7210,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B79" t="s">
@@ -6956,7 +7218,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B80" t="s">
@@ -6964,7 +7226,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B81" t="s">
@@ -6972,7 +7234,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B82" t="s">
@@ -6980,7 +7242,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="A83" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B83" t="s">
@@ -6988,7 +7250,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B84" t="s">
@@ -6996,7 +7258,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B85" t="s">
@@ -7004,7 +7266,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B86" t="s">
@@ -7012,7 +7274,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="A87" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B87" t="s">
@@ -7020,7 +7282,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B88" t="s">
@@ -7028,7 +7290,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B89" t="s">
@@ -7036,7 +7298,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B90" t="s">
@@ -7044,7 +7306,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B91" t="s">
@@ -7052,7 +7314,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B92" t="s">
@@ -7060,7 +7322,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B93" t="s">
@@ -7068,7 +7330,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="A94" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B94" t="s">
@@ -7076,7 +7338,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="A95" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B95" t="s">
@@ -7084,7 +7346,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B96" t="s">
@@ -7092,7 +7354,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B97" t="s">
@@ -7100,7 +7362,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B98" t="s">
@@ -7108,7 +7370,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B99" t="s">
@@ -7116,7 +7378,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B100" t="s">
@@ -7124,7 +7386,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B101" t="s">
@@ -7132,7 +7394,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B102" t="s">
@@ -7140,7 +7402,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B103" t="s">
@@ -7148,7 +7410,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B104" t="s">
@@ -7156,7 +7418,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B105" t="s">
@@ -7164,7 +7426,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B106" t="s">
@@ -7172,7 +7434,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B107" t="s">
@@ -7180,7 +7442,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="A108" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B108" t="s">
@@ -7188,7 +7450,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="A109" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B109" t="s">
@@ -7196,7 +7458,7 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="A110" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B110" t="s">
@@ -7204,7 +7466,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="A111" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B111" t="s">
@@ -7212,7 +7474,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="A112" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B112" t="s">
@@ -7220,7 +7482,7 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="A113" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B113" t="s">
@@ -7228,7 +7490,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="A114" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B114" t="s">
@@ -7236,7 +7498,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="A115" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B115" t="s">
@@ -7244,7 +7506,7 @@
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="A116" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B116" t="s">
@@ -7252,7 +7514,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="A117" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B117" t="s">
@@ -7260,7 +7522,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="A118" s="5" t="s">
         <v>233</v>
       </c>
       <c r="B118" t="s">
@@ -7268,7 +7530,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="A119" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B119" t="s">
@@ -7276,7 +7538,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="A120" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B120" t="s">
@@ -7284,7 +7546,7 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="A121" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B121" t="s">
@@ -7292,7 +7554,7 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="A122" s="5" t="s">
         <v>242</v>
       </c>
       <c r="B122" t="s">
@@ -7300,7 +7562,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="A123" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B123" t="s">
@@ -7308,7 +7570,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="A124" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B124" t="s">
@@ -7316,7 +7578,7 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="A125" s="5" t="s">
         <v>247</v>
       </c>
       <c r="B125" t="s">
@@ -7324,7 +7586,7 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="A126" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B126" t="s">
@@ -7332,7 +7594,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="A127" s="5" t="s">
         <v>252</v>
       </c>
       <c r="B127" t="s">
@@ -7340,7 +7602,7 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="A128" s="5" t="s">
         <v>253</v>
       </c>
       <c r="B128" t="s">
@@ -7348,7 +7610,7 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="A129" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B129" t="s">
@@ -7356,7 +7618,7 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="A130" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B130" t="s">
@@ -7364,7 +7626,7 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="A131" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B131" t="s">
@@ -7372,7 +7634,7 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="A132" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B132" t="s">
@@ -7380,7 +7642,7 @@
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="A133" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B133" t="s">
@@ -7388,7 +7650,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="A134" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B134" t="s">
@@ -7396,7 +7658,7 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="A135" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B135" t="s">
@@ -7404,7 +7666,7 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="A136" s="5" t="s">
         <v>269</v>
       </c>
       <c r="B136" t="s">
@@ -7412,11 +7674,659 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="A137" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B137" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="5" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -7428,7 +8338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04B7246-3B90-4FBE-89A6-C94F893CBA9A}">
   <dimension ref="A1:J1200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -14041,2832 +14951,2832 @@
     </row>
     <row r="635" spans="8:10" ht="21" customHeight="1">
       <c r="H635" s="1"/>
-      <c r="I635" s="5"/>
+      <c r="I635" s="6"/>
       <c r="J635" s="2"/>
     </row>
     <row r="636" spans="8:10" ht="21" customHeight="1">
       <c r="H636" s="1"/>
-      <c r="I636" s="5"/>
+      <c r="I636" s="6"/>
       <c r="J636" s="2"/>
     </row>
     <row r="637" spans="8:10" ht="21" customHeight="1">
       <c r="H637" s="1"/>
-      <c r="I637" s="5"/>
+      <c r="I637" s="6"/>
       <c r="J637" s="2"/>
     </row>
     <row r="638" spans="8:10" ht="21" customHeight="1">
       <c r="H638" s="1"/>
-      <c r="I638" s="5"/>
+      <c r="I638" s="6"/>
       <c r="J638" s="2"/>
     </row>
     <row r="639" spans="8:10" ht="21" customHeight="1">
       <c r="H639" s="1"/>
-      <c r="I639" s="5"/>
+      <c r="I639" s="6"/>
       <c r="J639" s="2"/>
     </row>
     <row r="640" spans="8:10" ht="21" customHeight="1">
       <c r="H640" s="1"/>
-      <c r="I640" s="5"/>
+      <c r="I640" s="6"/>
       <c r="J640" s="2"/>
     </row>
     <row r="641" spans="8:10" ht="21" customHeight="1">
       <c r="H641" s="1"/>
-      <c r="I641" s="5"/>
+      <c r="I641" s="6"/>
       <c r="J641" s="2"/>
     </row>
     <row r="642" spans="8:10" ht="21" customHeight="1">
       <c r="H642" s="1"/>
-      <c r="I642" s="5"/>
+      <c r="I642" s="6"/>
       <c r="J642" s="2"/>
     </row>
     <row r="643" spans="8:10" ht="21" customHeight="1">
       <c r="H643" s="1"/>
-      <c r="I643" s="5"/>
+      <c r="I643" s="6"/>
       <c r="J643" s="2"/>
     </row>
     <row r="644" spans="8:10" ht="21" customHeight="1">
       <c r="H644" s="1"/>
-      <c r="I644" s="5"/>
+      <c r="I644" s="6"/>
       <c r="J644" s="2"/>
     </row>
     <row r="645" spans="8:10" ht="21" customHeight="1">
       <c r="H645" s="1"/>
-      <c r="I645" s="5"/>
+      <c r="I645" s="6"/>
       <c r="J645" s="2"/>
     </row>
     <row r="646" spans="8:10" ht="21" customHeight="1">
       <c r="H646" s="1"/>
-      <c r="I646" s="5"/>
+      <c r="I646" s="6"/>
       <c r="J646" s="2"/>
     </row>
     <row r="647" spans="8:10" ht="21" customHeight="1">
       <c r="H647" s="1"/>
-      <c r="I647" s="5"/>
+      <c r="I647" s="6"/>
       <c r="J647" s="2"/>
     </row>
     <row r="648" spans="8:10" ht="21" customHeight="1">
       <c r="H648" s="1"/>
-      <c r="I648" s="5"/>
+      <c r="I648" s="6"/>
       <c r="J648" s="2"/>
     </row>
     <row r="649" spans="8:10" ht="21" customHeight="1">
       <c r="H649" s="1"/>
-      <c r="I649" s="5"/>
+      <c r="I649" s="6"/>
       <c r="J649" s="2"/>
     </row>
     <row r="650" spans="8:10" ht="21" customHeight="1">
       <c r="H650" s="1"/>
-      <c r="I650" s="5"/>
+      <c r="I650" s="6"/>
       <c r="J650" s="2"/>
     </row>
     <row r="651" spans="8:10" ht="21" customHeight="1">
       <c r="H651" s="1"/>
-      <c r="I651" s="5"/>
+      <c r="I651" s="6"/>
       <c r="J651" s="2"/>
     </row>
     <row r="652" spans="8:10" ht="21" customHeight="1">
       <c r="H652" s="1"/>
-      <c r="I652" s="5"/>
+      <c r="I652" s="6"/>
       <c r="J652" s="2"/>
     </row>
     <row r="653" spans="8:10" ht="21" customHeight="1">
       <c r="H653" s="1"/>
-      <c r="I653" s="5"/>
+      <c r="I653" s="6"/>
       <c r="J653" s="2"/>
     </row>
     <row r="654" spans="8:10" ht="21" customHeight="1">
       <c r="H654" s="1"/>
-      <c r="I654" s="5"/>
+      <c r="I654" s="6"/>
       <c r="J654" s="2"/>
     </row>
     <row r="655" spans="8:10" ht="21" customHeight="1">
       <c r="H655" s="1"/>
-      <c r="I655" s="5"/>
+      <c r="I655" s="6"/>
       <c r="J655" s="2"/>
     </row>
     <row r="656" spans="8:10" ht="21" customHeight="1">
       <c r="H656" s="1"/>
-      <c r="I656" s="5"/>
+      <c r="I656" s="6"/>
       <c r="J656" s="2"/>
     </row>
     <row r="657" spans="8:10" ht="21" customHeight="1">
       <c r="H657" s="1"/>
-      <c r="I657" s="5"/>
+      <c r="I657" s="6"/>
       <c r="J657" s="2"/>
     </row>
     <row r="658" spans="8:10" ht="21" customHeight="1">
       <c r="H658" s="1"/>
-      <c r="I658" s="5"/>
+      <c r="I658" s="6"/>
       <c r="J658" s="2"/>
     </row>
     <row r="659" spans="8:10" ht="21" customHeight="1">
       <c r="H659" s="1"/>
-      <c r="I659" s="5"/>
+      <c r="I659" s="6"/>
       <c r="J659" s="2"/>
     </row>
     <row r="660" spans="8:10" ht="21" customHeight="1">
       <c r="H660" s="1"/>
-      <c r="I660" s="5"/>
+      <c r="I660" s="6"/>
       <c r="J660" s="2"/>
     </row>
     <row r="661" spans="8:10" ht="21" customHeight="1">
       <c r="H661" s="1"/>
-      <c r="I661" s="5"/>
+      <c r="I661" s="6"/>
       <c r="J661" s="2"/>
     </row>
     <row r="662" spans="8:10" ht="21" customHeight="1">
       <c r="H662" s="1"/>
-      <c r="I662" s="5"/>
+      <c r="I662" s="6"/>
       <c r="J662" s="2"/>
     </row>
     <row r="663" spans="8:10" ht="21" customHeight="1">
       <c r="H663" s="1"/>
-      <c r="I663" s="5"/>
+      <c r="I663" s="6"/>
       <c r="J663" s="2"/>
     </row>
     <row r="664" spans="8:10" ht="21" customHeight="1">
       <c r="H664" s="1"/>
-      <c r="I664" s="5"/>
+      <c r="I664" s="6"/>
       <c r="J664" s="2"/>
     </row>
     <row r="665" spans="8:10" ht="21" customHeight="1">
       <c r="H665" s="1"/>
-      <c r="I665" s="5"/>
+      <c r="I665" s="6"/>
       <c r="J665" s="2"/>
     </row>
     <row r="666" spans="8:10" ht="21" customHeight="1">
       <c r="H666" s="1"/>
-      <c r="I666" s="5"/>
+      <c r="I666" s="6"/>
       <c r="J666" s="2"/>
     </row>
     <row r="667" spans="8:10" ht="21" customHeight="1">
       <c r="H667" s="1"/>
-      <c r="I667" s="5"/>
+      <c r="I667" s="6"/>
       <c r="J667" s="2"/>
     </row>
     <row r="668" spans="8:10" ht="21" customHeight="1">
       <c r="H668" s="1"/>
-      <c r="I668" s="5"/>
+      <c r="I668" s="6"/>
       <c r="J668" s="2"/>
     </row>
     <row r="669" spans="8:10" ht="21" customHeight="1">
       <c r="H669" s="1"/>
-      <c r="I669" s="5"/>
+      <c r="I669" s="6"/>
       <c r="J669" s="2"/>
     </row>
     <row r="670" spans="8:10" ht="21" customHeight="1">
       <c r="H670" s="1"/>
-      <c r="I670" s="5"/>
+      <c r="I670" s="6"/>
       <c r="J670" s="2"/>
     </row>
     <row r="671" spans="8:10" ht="21" customHeight="1">
       <c r="H671" s="1"/>
-      <c r="I671" s="5"/>
+      <c r="I671" s="6"/>
       <c r="J671" s="2"/>
     </row>
     <row r="672" spans="8:10" ht="21" customHeight="1">
       <c r="H672" s="1"/>
-      <c r="I672" s="5"/>
+      <c r="I672" s="6"/>
       <c r="J672" s="2"/>
     </row>
     <row r="673" spans="8:10" ht="21" customHeight="1">
       <c r="H673" s="1"/>
-      <c r="I673" s="5"/>
+      <c r="I673" s="6"/>
       <c r="J673" s="2"/>
     </row>
     <row r="674" spans="8:10" ht="21" customHeight="1">
       <c r="H674" s="1"/>
-      <c r="I674" s="5"/>
+      <c r="I674" s="6"/>
       <c r="J674" s="2"/>
     </row>
     <row r="675" spans="8:10" ht="21" customHeight="1">
       <c r="H675" s="1"/>
-      <c r="I675" s="5"/>
+      <c r="I675" s="6"/>
       <c r="J675" s="2"/>
     </row>
     <row r="676" spans="8:10" ht="21" customHeight="1">
       <c r="H676" s="1"/>
-      <c r="I676" s="5"/>
+      <c r="I676" s="6"/>
       <c r="J676" s="2"/>
     </row>
     <row r="677" spans="8:10" ht="21" customHeight="1">
       <c r="H677" s="1"/>
-      <c r="I677" s="5"/>
+      <c r="I677" s="6"/>
       <c r="J677" s="2"/>
     </row>
     <row r="678" spans="8:10" ht="21" customHeight="1">
       <c r="H678" s="1"/>
-      <c r="I678" s="5"/>
+      <c r="I678" s="6"/>
       <c r="J678" s="2"/>
     </row>
     <row r="679" spans="8:10" ht="21" customHeight="1">
       <c r="H679" s="1"/>
-      <c r="I679" s="5"/>
+      <c r="I679" s="6"/>
       <c r="J679" s="2"/>
     </row>
     <row r="680" spans="8:10" ht="21" customHeight="1">
       <c r="H680" s="1"/>
-      <c r="I680" s="5"/>
+      <c r="I680" s="6"/>
       <c r="J680" s="2"/>
     </row>
     <row r="681" spans="8:10" ht="21" customHeight="1">
       <c r="H681" s="1"/>
-      <c r="I681" s="5"/>
+      <c r="I681" s="6"/>
       <c r="J681" s="2"/>
     </row>
     <row r="682" spans="8:10" ht="21" customHeight="1">
       <c r="H682" s="1"/>
-      <c r="I682" s="5"/>
+      <c r="I682" s="6"/>
       <c r="J682" s="2"/>
     </row>
     <row r="683" spans="8:10" ht="21" customHeight="1">
       <c r="H683" s="1"/>
-      <c r="I683" s="5"/>
+      <c r="I683" s="6"/>
       <c r="J683" s="2"/>
     </row>
     <row r="684" spans="8:10" ht="21" customHeight="1">
       <c r="H684" s="1"/>
-      <c r="I684" s="5"/>
+      <c r="I684" s="6"/>
       <c r="J684" s="2"/>
     </row>
     <row r="685" spans="8:10" ht="21" customHeight="1">
       <c r="H685" s="1"/>
-      <c r="I685" s="5"/>
+      <c r="I685" s="6"/>
       <c r="J685" s="2"/>
     </row>
     <row r="686" spans="8:10" ht="21" customHeight="1">
       <c r="H686" s="1"/>
-      <c r="I686" s="5"/>
+      <c r="I686" s="6"/>
       <c r="J686" s="2"/>
     </row>
     <row r="687" spans="8:10" ht="21" customHeight="1">
       <c r="H687" s="1"/>
-      <c r="I687" s="5"/>
+      <c r="I687" s="6"/>
       <c r="J687" s="2"/>
     </row>
     <row r="688" spans="8:10" ht="21" customHeight="1">
       <c r="H688" s="1"/>
-      <c r="I688" s="5"/>
+      <c r="I688" s="6"/>
       <c r="J688" s="2"/>
     </row>
     <row r="689" spans="8:10" ht="21" customHeight="1">
       <c r="H689" s="1"/>
-      <c r="I689" s="5"/>
+      <c r="I689" s="6"/>
       <c r="J689" s="2"/>
     </row>
     <row r="690" spans="8:10" ht="21" customHeight="1">
       <c r="H690" s="1"/>
-      <c r="I690" s="5"/>
+      <c r="I690" s="6"/>
       <c r="J690" s="2"/>
     </row>
     <row r="691" spans="8:10" ht="21" customHeight="1">
       <c r="H691" s="1"/>
-      <c r="I691" s="5"/>
+      <c r="I691" s="6"/>
       <c r="J691" s="2"/>
     </row>
     <row r="692" spans="8:10" ht="21" customHeight="1">
       <c r="H692" s="1"/>
-      <c r="I692" s="5"/>
+      <c r="I692" s="6"/>
       <c r="J692" s="2"/>
     </row>
     <row r="693" spans="8:10" ht="21" customHeight="1">
       <c r="H693" s="1"/>
-      <c r="I693" s="5"/>
+      <c r="I693" s="6"/>
       <c r="J693" s="2"/>
     </row>
     <row r="694" spans="8:10" ht="21" customHeight="1">
       <c r="H694" s="1"/>
-      <c r="I694" s="5"/>
+      <c r="I694" s="6"/>
       <c r="J694" s="2"/>
     </row>
     <row r="695" spans="8:10" ht="21" customHeight="1">
       <c r="H695" s="1"/>
-      <c r="I695" s="5"/>
+      <c r="I695" s="6"/>
       <c r="J695" s="2"/>
     </row>
     <row r="696" spans="8:10" ht="21" customHeight="1">
       <c r="H696" s="1"/>
-      <c r="I696" s="5"/>
+      <c r="I696" s="6"/>
       <c r="J696" s="2"/>
     </row>
     <row r="697" spans="8:10" ht="21" customHeight="1">
       <c r="H697" s="1"/>
-      <c r="I697" s="5"/>
+      <c r="I697" s="6"/>
       <c r="J697" s="2"/>
     </row>
     <row r="698" spans="8:10" ht="21" customHeight="1">
       <c r="H698" s="1"/>
-      <c r="I698" s="5"/>
+      <c r="I698" s="6"/>
       <c r="J698" s="2"/>
     </row>
     <row r="699" spans="8:10" ht="21" customHeight="1">
       <c r="H699" s="1"/>
-      <c r="I699" s="5"/>
+      <c r="I699" s="6"/>
       <c r="J699" s="2"/>
     </row>
     <row r="700" spans="8:10" ht="21" customHeight="1">
       <c r="H700" s="1"/>
-      <c r="I700" s="5"/>
+      <c r="I700" s="6"/>
       <c r="J700" s="2"/>
     </row>
     <row r="701" spans="8:10" ht="21" customHeight="1">
       <c r="H701" s="1"/>
-      <c r="I701" s="5"/>
+      <c r="I701" s="6"/>
       <c r="J701" s="2"/>
     </row>
     <row r="702" spans="8:10" ht="21" customHeight="1">
       <c r="H702" s="1"/>
-      <c r="I702" s="5"/>
+      <c r="I702" s="6"/>
       <c r="J702" s="2"/>
     </row>
     <row r="703" spans="8:10" ht="21" customHeight="1">
       <c r="H703" s="1"/>
-      <c r="I703" s="5"/>
+      <c r="I703" s="6"/>
       <c r="J703" s="2"/>
     </row>
     <row r="704" spans="8:10" ht="21" customHeight="1">
       <c r="H704" s="1"/>
-      <c r="I704" s="5"/>
+      <c r="I704" s="6"/>
       <c r="J704" s="2"/>
     </row>
     <row r="705" spans="8:10" ht="21" customHeight="1">
       <c r="H705" s="1"/>
-      <c r="I705" s="5"/>
+      <c r="I705" s="6"/>
       <c r="J705" s="2"/>
     </row>
     <row r="706" spans="8:10" ht="21" customHeight="1">
       <c r="H706" s="1"/>
-      <c r="I706" s="5"/>
+      <c r="I706" s="6"/>
       <c r="J706" s="2"/>
     </row>
     <row r="707" spans="8:10" ht="21" customHeight="1">
       <c r="H707" s="1"/>
-      <c r="I707" s="5"/>
+      <c r="I707" s="6"/>
       <c r="J707" s="2"/>
     </row>
     <row r="708" spans="8:10" ht="21" customHeight="1">
       <c r="H708" s="1"/>
-      <c r="I708" s="5"/>
+      <c r="I708" s="6"/>
       <c r="J708" s="2"/>
     </row>
     <row r="709" spans="8:10" ht="21" customHeight="1">
       <c r="H709" s="1"/>
-      <c r="I709" s="5"/>
+      <c r="I709" s="6"/>
       <c r="J709" s="2"/>
     </row>
     <row r="710" spans="8:10" ht="21" customHeight="1">
       <c r="H710" s="1"/>
-      <c r="I710" s="5"/>
+      <c r="I710" s="6"/>
       <c r="J710" s="2"/>
     </row>
     <row r="711" spans="8:10" ht="21" customHeight="1">
       <c r="H711" s="1"/>
-      <c r="I711" s="5"/>
+      <c r="I711" s="6"/>
       <c r="J711" s="2"/>
     </row>
     <row r="712" spans="8:10" ht="21" customHeight="1">
       <c r="H712" s="1"/>
-      <c r="I712" s="5"/>
+      <c r="I712" s="6"/>
       <c r="J712" s="2"/>
     </row>
     <row r="713" spans="8:10" ht="21" customHeight="1">
       <c r="H713" s="1"/>
-      <c r="I713" s="5"/>
+      <c r="I713" s="6"/>
       <c r="J713" s="2"/>
     </row>
     <row r="714" spans="8:10" ht="21" customHeight="1">
       <c r="H714" s="1"/>
-      <c r="I714" s="5"/>
+      <c r="I714" s="6"/>
       <c r="J714" s="2"/>
     </row>
     <row r="715" spans="8:10" ht="21" customHeight="1">
       <c r="H715" s="1"/>
-      <c r="I715" s="5"/>
+      <c r="I715" s="6"/>
       <c r="J715" s="2"/>
     </row>
     <row r="716" spans="8:10" ht="21" customHeight="1">
       <c r="H716" s="1"/>
-      <c r="I716" s="5"/>
+      <c r="I716" s="6"/>
       <c r="J716" s="2"/>
     </row>
     <row r="717" spans="8:10" ht="21" customHeight="1">
       <c r="H717" s="1"/>
-      <c r="I717" s="5"/>
+      <c r="I717" s="6"/>
       <c r="J717" s="2"/>
     </row>
     <row r="718" spans="8:10" ht="21" customHeight="1">
       <c r="H718" s="1"/>
-      <c r="I718" s="5"/>
+      <c r="I718" s="6"/>
       <c r="J718" s="2"/>
     </row>
     <row r="719" spans="8:10" ht="21" customHeight="1">
       <c r="H719" s="1"/>
-      <c r="I719" s="5"/>
+      <c r="I719" s="6"/>
       <c r="J719" s="2"/>
     </row>
     <row r="720" spans="8:10" ht="21" customHeight="1">
       <c r="H720" s="1"/>
-      <c r="I720" s="5"/>
+      <c r="I720" s="6"/>
       <c r="J720" s="2"/>
     </row>
     <row r="721" spans="8:10" ht="21" customHeight="1">
       <c r="H721" s="1"/>
-      <c r="I721" s="5"/>
+      <c r="I721" s="6"/>
       <c r="J721" s="2"/>
     </row>
     <row r="722" spans="8:10" ht="21" customHeight="1">
       <c r="H722" s="1"/>
-      <c r="I722" s="5"/>
+      <c r="I722" s="6"/>
       <c r="J722" s="2"/>
     </row>
     <row r="723" spans="8:10" ht="21" customHeight="1">
       <c r="H723" s="1"/>
-      <c r="I723" s="5"/>
+      <c r="I723" s="6"/>
       <c r="J723" s="2"/>
     </row>
     <row r="724" spans="8:10" ht="21" customHeight="1">
       <c r="H724" s="1"/>
-      <c r="I724" s="5"/>
+      <c r="I724" s="6"/>
       <c r="J724" s="2"/>
     </row>
     <row r="725" spans="8:10" ht="21" customHeight="1">
       <c r="H725" s="1"/>
-      <c r="I725" s="5"/>
+      <c r="I725" s="6"/>
       <c r="J725" s="2"/>
     </row>
     <row r="726" spans="8:10" ht="21" customHeight="1">
       <c r="H726" s="1"/>
-      <c r="I726" s="5"/>
+      <c r="I726" s="6"/>
       <c r="J726" s="2"/>
     </row>
     <row r="727" spans="8:10" ht="21" customHeight="1">
       <c r="H727" s="1"/>
-      <c r="I727" s="5"/>
+      <c r="I727" s="6"/>
       <c r="J727" s="2"/>
     </row>
     <row r="728" spans="8:10" ht="21" customHeight="1">
       <c r="H728" s="1"/>
-      <c r="I728" s="5"/>
+      <c r="I728" s="6"/>
       <c r="J728" s="2"/>
     </row>
     <row r="729" spans="8:10" ht="21" customHeight="1">
       <c r="H729" s="1"/>
-      <c r="I729" s="5"/>
+      <c r="I729" s="6"/>
       <c r="J729" s="2"/>
     </row>
     <row r="730" spans="8:10" ht="21" customHeight="1">
       <c r="H730" s="1"/>
-      <c r="I730" s="5"/>
+      <c r="I730" s="6"/>
       <c r="J730" s="2"/>
     </row>
     <row r="731" spans="8:10" ht="21" customHeight="1">
       <c r="H731" s="1"/>
-      <c r="I731" s="5"/>
+      <c r="I731" s="6"/>
       <c r="J731" s="2"/>
     </row>
     <row r="732" spans="8:10" ht="21" customHeight="1">
       <c r="H732" s="1"/>
-      <c r="I732" s="5"/>
+      <c r="I732" s="6"/>
       <c r="J732" s="2"/>
     </row>
     <row r="733" spans="8:10" ht="21" customHeight="1">
       <c r="H733" s="1"/>
-      <c r="I733" s="5"/>
+      <c r="I733" s="6"/>
       <c r="J733" s="2"/>
     </row>
     <row r="734" spans="8:10" ht="21" customHeight="1">
       <c r="H734" s="1"/>
-      <c r="I734" s="5"/>
+      <c r="I734" s="6"/>
       <c r="J734" s="2"/>
     </row>
     <row r="735" spans="8:10" ht="21" customHeight="1">
       <c r="H735" s="1"/>
-      <c r="I735" s="5"/>
+      <c r="I735" s="6"/>
       <c r="J735" s="2"/>
     </row>
     <row r="736" spans="8:10" ht="21" customHeight="1">
       <c r="H736" s="1"/>
-      <c r="I736" s="5"/>
+      <c r="I736" s="6"/>
       <c r="J736" s="2"/>
     </row>
     <row r="737" spans="8:10" ht="21" customHeight="1">
       <c r="H737" s="1"/>
-      <c r="I737" s="5"/>
+      <c r="I737" s="6"/>
       <c r="J737" s="2"/>
     </row>
     <row r="738" spans="8:10" ht="21" customHeight="1">
       <c r="H738" s="1"/>
-      <c r="I738" s="5"/>
+      <c r="I738" s="6"/>
       <c r="J738" s="2"/>
     </row>
     <row r="739" spans="8:10" ht="21" customHeight="1">
       <c r="H739" s="1"/>
-      <c r="I739" s="5"/>
+      <c r="I739" s="6"/>
       <c r="J739" s="2"/>
     </row>
     <row r="740" spans="8:10" ht="21" customHeight="1">
       <c r="H740" s="1"/>
-      <c r="I740" s="5"/>
+      <c r="I740" s="6"/>
       <c r="J740" s="2"/>
     </row>
     <row r="741" spans="8:10" ht="21" customHeight="1">
       <c r="H741" s="1"/>
-      <c r="I741" s="5"/>
+      <c r="I741" s="6"/>
       <c r="J741" s="2"/>
     </row>
     <row r="742" spans="8:10" ht="21" customHeight="1">
       <c r="H742" s="1"/>
-      <c r="I742" s="5"/>
+      <c r="I742" s="6"/>
       <c r="J742" s="2"/>
     </row>
     <row r="743" spans="8:10" ht="21" customHeight="1">
       <c r="H743" s="1"/>
-      <c r="I743" s="5"/>
+      <c r="I743" s="6"/>
       <c r="J743" s="2"/>
     </row>
     <row r="744" spans="8:10" ht="21" customHeight="1">
       <c r="H744" s="1"/>
-      <c r="I744" s="5"/>
+      <c r="I744" s="6"/>
       <c r="J744" s="2"/>
     </row>
     <row r="745" spans="8:10" ht="21" customHeight="1">
       <c r="H745" s="1"/>
-      <c r="I745" s="5"/>
+      <c r="I745" s="6"/>
       <c r="J745" s="2"/>
     </row>
     <row r="746" spans="8:10" ht="21" customHeight="1">
       <c r="H746" s="1"/>
-      <c r="I746" s="5"/>
+      <c r="I746" s="6"/>
       <c r="J746" s="2"/>
     </row>
     <row r="747" spans="8:10" ht="21" customHeight="1">
       <c r="H747" s="1"/>
-      <c r="I747" s="5"/>
+      <c r="I747" s="6"/>
       <c r="J747" s="2"/>
     </row>
     <row r="748" spans="8:10" ht="21" customHeight="1">
       <c r="H748" s="1"/>
-      <c r="I748" s="5"/>
+      <c r="I748" s="6"/>
       <c r="J748" s="2"/>
     </row>
     <row r="749" spans="8:10" ht="21" customHeight="1">
       <c r="H749" s="1"/>
-      <c r="I749" s="5"/>
+      <c r="I749" s="6"/>
       <c r="J749" s="2"/>
     </row>
     <row r="750" spans="8:10" ht="21" customHeight="1">
       <c r="H750" s="1"/>
-      <c r="I750" s="5"/>
+      <c r="I750" s="6"/>
       <c r="J750" s="2"/>
     </row>
     <row r="751" spans="8:10" ht="21" customHeight="1">
       <c r="H751" s="1"/>
-      <c r="I751" s="5"/>
+      <c r="I751" s="6"/>
       <c r="J751" s="2"/>
     </row>
     <row r="752" spans="8:10" ht="21" customHeight="1">
       <c r="H752" s="1"/>
-      <c r="I752" s="5"/>
+      <c r="I752" s="6"/>
       <c r="J752" s="2"/>
     </row>
     <row r="753" spans="8:10" ht="21" customHeight="1">
       <c r="H753" s="1"/>
-      <c r="I753" s="5"/>
+      <c r="I753" s="6"/>
       <c r="J753" s="2"/>
     </row>
     <row r="754" spans="8:10" ht="21" customHeight="1">
       <c r="H754" s="1"/>
-      <c r="I754" s="5"/>
+      <c r="I754" s="6"/>
       <c r="J754" s="2"/>
     </row>
     <row r="755" spans="8:10" ht="21" customHeight="1">
       <c r="H755" s="1"/>
-      <c r="I755" s="5"/>
+      <c r="I755" s="6"/>
       <c r="J755" s="2"/>
     </row>
     <row r="756" spans="8:10" ht="21" customHeight="1">
       <c r="H756" s="1"/>
-      <c r="I756" s="5"/>
+      <c r="I756" s="6"/>
       <c r="J756" s="2"/>
     </row>
     <row r="757" spans="8:10" ht="21" customHeight="1">
       <c r="H757" s="1"/>
-      <c r="I757" s="5"/>
+      <c r="I757" s="6"/>
       <c r="J757" s="2"/>
     </row>
     <row r="758" spans="8:10" ht="21" customHeight="1">
       <c r="H758" s="1"/>
-      <c r="I758" s="5"/>
+      <c r="I758" s="6"/>
       <c r="J758" s="2"/>
     </row>
     <row r="759" spans="8:10" ht="21" customHeight="1">
       <c r="H759" s="1"/>
-      <c r="I759" s="5"/>
+      <c r="I759" s="6"/>
       <c r="J759" s="2"/>
     </row>
     <row r="760" spans="8:10" ht="21" customHeight="1">
       <c r="H760" s="1"/>
-      <c r="I760" s="5"/>
+      <c r="I760" s="6"/>
       <c r="J760" s="2"/>
     </row>
     <row r="761" spans="8:10" ht="21" customHeight="1">
       <c r="H761" s="1"/>
-      <c r="I761" s="5"/>
+      <c r="I761" s="6"/>
       <c r="J761" s="2"/>
     </row>
     <row r="762" spans="8:10" ht="21" customHeight="1">
       <c r="H762" s="1"/>
-      <c r="I762" s="5"/>
+      <c r="I762" s="6"/>
       <c r="J762" s="2"/>
     </row>
     <row r="763" spans="8:10" ht="21" customHeight="1">
       <c r="H763" s="1"/>
-      <c r="I763" s="5"/>
+      <c r="I763" s="6"/>
       <c r="J763" s="2"/>
     </row>
     <row r="764" spans="8:10" ht="21" customHeight="1">
       <c r="H764" s="1"/>
-      <c r="I764" s="5"/>
+      <c r="I764" s="6"/>
       <c r="J764" s="2"/>
     </row>
     <row r="765" spans="8:10" ht="21" customHeight="1">
       <c r="H765" s="1"/>
-      <c r="I765" s="5"/>
+      <c r="I765" s="6"/>
       <c r="J765" s="2"/>
     </row>
     <row r="766" spans="8:10" ht="21" customHeight="1">
       <c r="H766" s="1"/>
-      <c r="I766" s="5"/>
+      <c r="I766" s="6"/>
       <c r="J766" s="2"/>
     </row>
     <row r="767" spans="8:10" ht="21" customHeight="1">
       <c r="H767" s="1"/>
-      <c r="I767" s="5"/>
+      <c r="I767" s="6"/>
       <c r="J767" s="2"/>
     </row>
     <row r="768" spans="8:10" ht="21" customHeight="1">
       <c r="H768" s="1"/>
-      <c r="I768" s="5"/>
+      <c r="I768" s="6"/>
       <c r="J768" s="2"/>
     </row>
     <row r="769" spans="8:10" ht="21" customHeight="1">
       <c r="H769" s="1"/>
-      <c r="I769" s="5"/>
+      <c r="I769" s="6"/>
       <c r="J769" s="2"/>
     </row>
     <row r="770" spans="8:10" ht="21" customHeight="1">
       <c r="H770" s="1"/>
-      <c r="I770" s="5"/>
+      <c r="I770" s="6"/>
       <c r="J770" s="2"/>
     </row>
     <row r="771" spans="8:10" ht="21" customHeight="1">
       <c r="H771" s="1"/>
-      <c r="I771" s="5"/>
+      <c r="I771" s="6"/>
       <c r="J771" s="2"/>
     </row>
     <row r="772" spans="8:10" ht="21" customHeight="1">
       <c r="H772" s="1"/>
-      <c r="I772" s="5"/>
+      <c r="I772" s="6"/>
       <c r="J772" s="2"/>
     </row>
     <row r="773" spans="8:10" ht="21" customHeight="1">
       <c r="H773" s="1"/>
-      <c r="I773" s="5"/>
+      <c r="I773" s="6"/>
       <c r="J773" s="2"/>
     </row>
     <row r="774" spans="8:10" ht="21" customHeight="1">
       <c r="H774" s="1"/>
-      <c r="I774" s="5"/>
+      <c r="I774" s="6"/>
       <c r="J774" s="2"/>
     </row>
     <row r="775" spans="8:10" ht="21" customHeight="1">
       <c r="H775" s="1"/>
-      <c r="I775" s="5"/>
+      <c r="I775" s="6"/>
       <c r="J775" s="2"/>
     </row>
     <row r="776" spans="8:10" ht="21" customHeight="1">
       <c r="H776" s="1"/>
-      <c r="I776" s="5"/>
+      <c r="I776" s="6"/>
       <c r="J776" s="2"/>
     </row>
     <row r="777" spans="8:10" ht="21" customHeight="1">
       <c r="H777" s="1"/>
-      <c r="I777" s="5"/>
+      <c r="I777" s="6"/>
       <c r="J777" s="2"/>
     </row>
     <row r="778" spans="8:10" ht="21" customHeight="1">
       <c r="H778" s="1"/>
-      <c r="I778" s="5"/>
+      <c r="I778" s="6"/>
       <c r="J778" s="2"/>
     </row>
     <row r="779" spans="8:10" ht="21" customHeight="1">
       <c r="H779" s="1"/>
-      <c r="I779" s="5"/>
+      <c r="I779" s="6"/>
       <c r="J779" s="2"/>
     </row>
     <row r="780" spans="8:10" ht="21" customHeight="1">
       <c r="H780" s="1"/>
-      <c r="I780" s="5"/>
+      <c r="I780" s="6"/>
       <c r="J780" s="2"/>
     </row>
     <row r="781" spans="8:10" ht="21" customHeight="1">
       <c r="H781" s="1"/>
-      <c r="I781" s="5"/>
+      <c r="I781" s="6"/>
       <c r="J781" s="2"/>
     </row>
     <row r="782" spans="8:10" ht="21" customHeight="1">
       <c r="H782" s="1"/>
-      <c r="I782" s="5"/>
+      <c r="I782" s="6"/>
       <c r="J782" s="2"/>
     </row>
     <row r="783" spans="8:10" ht="21" customHeight="1">
       <c r="H783" s="1"/>
-      <c r="I783" s="5"/>
+      <c r="I783" s="6"/>
       <c r="J783" s="2"/>
     </row>
     <row r="784" spans="8:10" ht="21" customHeight="1">
       <c r="H784" s="1"/>
-      <c r="I784" s="5"/>
+      <c r="I784" s="6"/>
       <c r="J784" s="2"/>
     </row>
     <row r="785" spans="8:10" ht="21" customHeight="1">
       <c r="H785" s="1"/>
-      <c r="I785" s="5"/>
+      <c r="I785" s="6"/>
       <c r="J785" s="2"/>
     </row>
     <row r="786" spans="8:10" ht="21" customHeight="1">
       <c r="H786" s="1"/>
-      <c r="I786" s="5"/>
+      <c r="I786" s="6"/>
       <c r="J786" s="2"/>
     </row>
     <row r="787" spans="8:10" ht="21" customHeight="1">
       <c r="H787" s="1"/>
-      <c r="I787" s="5"/>
+      <c r="I787" s="6"/>
       <c r="J787" s="2"/>
     </row>
     <row r="788" spans="8:10" ht="21" customHeight="1">
       <c r="H788" s="1"/>
-      <c r="I788" s="5"/>
+      <c r="I788" s="6"/>
       <c r="J788" s="2"/>
     </row>
     <row r="789" spans="8:10" ht="21" customHeight="1">
       <c r="H789" s="1"/>
-      <c r="I789" s="5"/>
+      <c r="I789" s="6"/>
       <c r="J789" s="2"/>
     </row>
     <row r="790" spans="8:10" ht="21" customHeight="1">
       <c r="H790" s="1"/>
-      <c r="I790" s="5"/>
+      <c r="I790" s="6"/>
       <c r="J790" s="2"/>
     </row>
     <row r="791" spans="8:10" ht="21" customHeight="1">
       <c r="H791" s="1"/>
-      <c r="I791" s="5"/>
+      <c r="I791" s="6"/>
       <c r="J791" s="2"/>
     </row>
     <row r="792" spans="8:10" ht="21" customHeight="1">
       <c r="H792" s="1"/>
-      <c r="I792" s="5"/>
+      <c r="I792" s="6"/>
       <c r="J792" s="2"/>
     </row>
     <row r="793" spans="8:10" ht="21" customHeight="1">
       <c r="H793" s="1"/>
-      <c r="I793" s="5"/>
+      <c r="I793" s="6"/>
       <c r="J793" s="2"/>
     </row>
     <row r="794" spans="8:10" ht="21" customHeight="1">
       <c r="H794" s="1"/>
-      <c r="I794" s="5"/>
+      <c r="I794" s="6"/>
       <c r="J794" s="2"/>
     </row>
     <row r="795" spans="8:10" ht="21" customHeight="1">
       <c r="H795" s="1"/>
-      <c r="I795" s="5"/>
+      <c r="I795" s="6"/>
       <c r="J795" s="2"/>
     </row>
     <row r="796" spans="8:10" ht="21" customHeight="1">
       <c r="H796" s="1"/>
-      <c r="I796" s="5"/>
+      <c r="I796" s="6"/>
       <c r="J796" s="2"/>
     </row>
     <row r="797" spans="8:10" ht="21" customHeight="1">
       <c r="H797" s="1"/>
-      <c r="I797" s="5"/>
+      <c r="I797" s="6"/>
       <c r="J797" s="2"/>
     </row>
     <row r="798" spans="8:10" ht="21" customHeight="1">
       <c r="H798" s="1"/>
-      <c r="I798" s="5"/>
+      <c r="I798" s="6"/>
       <c r="J798" s="2"/>
     </row>
     <row r="799" spans="8:10" ht="21" customHeight="1">
       <c r="H799" s="1"/>
-      <c r="I799" s="5"/>
+      <c r="I799" s="6"/>
       <c r="J799" s="2"/>
     </row>
     <row r="800" spans="8:10" ht="21" customHeight="1">
       <c r="H800" s="1"/>
-      <c r="I800" s="5"/>
+      <c r="I800" s="6"/>
       <c r="J800" s="2"/>
     </row>
     <row r="801" spans="8:10" ht="21" customHeight="1">
       <c r="H801" s="1"/>
-      <c r="I801" s="5"/>
+      <c r="I801" s="6"/>
       <c r="J801" s="2"/>
     </row>
     <row r="802" spans="8:10" ht="21" customHeight="1">
       <c r="H802" s="1"/>
-      <c r="I802" s="5"/>
+      <c r="I802" s="6"/>
       <c r="J802" s="2"/>
     </row>
     <row r="803" spans="8:10" ht="21" customHeight="1">
       <c r="H803" s="1"/>
-      <c r="I803" s="5"/>
+      <c r="I803" s="6"/>
       <c r="J803" s="2"/>
     </row>
     <row r="804" spans="8:10" ht="21" customHeight="1">
       <c r="H804" s="1"/>
-      <c r="I804" s="5"/>
+      <c r="I804" s="6"/>
       <c r="J804" s="2"/>
     </row>
     <row r="805" spans="8:10" ht="21" customHeight="1">
       <c r="H805" s="1"/>
-      <c r="I805" s="5"/>
+      <c r="I805" s="6"/>
       <c r="J805" s="2"/>
     </row>
     <row r="806" spans="8:10" ht="21" customHeight="1">
       <c r="H806" s="1"/>
-      <c r="I806" s="5"/>
+      <c r="I806" s="6"/>
       <c r="J806" s="2"/>
     </row>
     <row r="807" spans="8:10" ht="21" customHeight="1">
       <c r="H807" s="1"/>
-      <c r="I807" s="5"/>
+      <c r="I807" s="6"/>
       <c r="J807" s="2"/>
     </row>
     <row r="808" spans="8:10" ht="21" customHeight="1">
       <c r="H808" s="1"/>
-      <c r="I808" s="5"/>
+      <c r="I808" s="6"/>
       <c r="J808" s="2"/>
     </row>
     <row r="809" spans="8:10" ht="21" customHeight="1">
       <c r="H809" s="1"/>
-      <c r="I809" s="5"/>
+      <c r="I809" s="6"/>
       <c r="J809" s="2"/>
     </row>
     <row r="810" spans="8:10" ht="21" customHeight="1">
       <c r="H810" s="1"/>
-      <c r="I810" s="5"/>
+      <c r="I810" s="6"/>
       <c r="J810" s="2"/>
     </row>
     <row r="811" spans="8:10" ht="21" customHeight="1">
       <c r="H811" s="1"/>
-      <c r="I811" s="5"/>
+      <c r="I811" s="6"/>
       <c r="J811" s="2"/>
     </row>
     <row r="812" spans="8:10" ht="21" customHeight="1">
       <c r="H812" s="1"/>
-      <c r="I812" s="5"/>
+      <c r="I812" s="6"/>
       <c r="J812" s="2"/>
     </row>
     <row r="813" spans="8:10" ht="21" customHeight="1">
       <c r="H813" s="1"/>
-      <c r="I813" s="5"/>
+      <c r="I813" s="6"/>
       <c r="J813" s="2"/>
     </row>
     <row r="814" spans="8:10" ht="21" customHeight="1">
       <c r="H814" s="1"/>
-      <c r="I814" s="5"/>
+      <c r="I814" s="6"/>
       <c r="J814" s="2"/>
     </row>
     <row r="815" spans="8:10" ht="21" customHeight="1">
       <c r="H815" s="1"/>
-      <c r="I815" s="5"/>
+      <c r="I815" s="6"/>
       <c r="J815" s="2"/>
     </row>
     <row r="816" spans="8:10" ht="21" customHeight="1">
       <c r="H816" s="1"/>
-      <c r="I816" s="5"/>
+      <c r="I816" s="6"/>
       <c r="J816" s="2"/>
     </row>
     <row r="817" spans="8:10" ht="21" customHeight="1">
       <c r="H817" s="1"/>
-      <c r="I817" s="5"/>
+      <c r="I817" s="6"/>
       <c r="J817" s="2"/>
     </row>
     <row r="818" spans="8:10" ht="21" customHeight="1">
       <c r="H818" s="1"/>
-      <c r="I818" s="5"/>
+      <c r="I818" s="6"/>
       <c r="J818" s="2"/>
     </row>
     <row r="819" spans="8:10" ht="21" customHeight="1">
       <c r="H819" s="1"/>
-      <c r="I819" s="5"/>
+      <c r="I819" s="6"/>
       <c r="J819" s="2"/>
     </row>
     <row r="820" spans="8:10" ht="21" customHeight="1">
       <c r="H820" s="1"/>
-      <c r="I820" s="5"/>
+      <c r="I820" s="6"/>
       <c r="J820" s="2"/>
     </row>
     <row r="821" spans="8:10" ht="21" customHeight="1">
       <c r="H821" s="1"/>
-      <c r="I821" s="5"/>
+      <c r="I821" s="6"/>
       <c r="J821" s="2"/>
     </row>
     <row r="822" spans="8:10" ht="21" customHeight="1">
       <c r="H822" s="1"/>
-      <c r="I822" s="5"/>
+      <c r="I822" s="6"/>
       <c r="J822" s="2"/>
     </row>
     <row r="823" spans="8:10" ht="21" customHeight="1">
       <c r="H823" s="1"/>
-      <c r="I823" s="5"/>
+      <c r="I823" s="6"/>
       <c r="J823" s="2"/>
     </row>
     <row r="824" spans="8:10" ht="21" customHeight="1">
       <c r="H824" s="1"/>
-      <c r="I824" s="5"/>
+      <c r="I824" s="6"/>
       <c r="J824" s="2"/>
     </row>
     <row r="825" spans="8:10" ht="21" customHeight="1">
       <c r="H825" s="1"/>
-      <c r="I825" s="5"/>
+      <c r="I825" s="6"/>
       <c r="J825" s="2"/>
     </row>
     <row r="826" spans="8:10" ht="21" customHeight="1">
       <c r="H826" s="1"/>
-      <c r="I826" s="5"/>
+      <c r="I826" s="6"/>
       <c r="J826" s="2"/>
     </row>
     <row r="827" spans="8:10" ht="21" customHeight="1">
       <c r="H827" s="1"/>
-      <c r="I827" s="5"/>
+      <c r="I827" s="6"/>
       <c r="J827" s="2"/>
     </row>
     <row r="828" spans="8:10" ht="21" customHeight="1">
       <c r="H828" s="1"/>
-      <c r="I828" s="5"/>
+      <c r="I828" s="6"/>
       <c r="J828" s="2"/>
     </row>
     <row r="829" spans="8:10" ht="21" customHeight="1">
       <c r="H829" s="1"/>
-      <c r="I829" s="5"/>
+      <c r="I829" s="6"/>
       <c r="J829" s="2"/>
     </row>
     <row r="830" spans="8:10" ht="21" customHeight="1">
       <c r="H830" s="1"/>
-      <c r="I830" s="5"/>
+      <c r="I830" s="6"/>
       <c r="J830" s="2"/>
     </row>
     <row r="831" spans="8:10" ht="21" customHeight="1">
       <c r="H831" s="1"/>
-      <c r="I831" s="5"/>
+      <c r="I831" s="6"/>
       <c r="J831" s="2"/>
     </row>
     <row r="832" spans="8:10" ht="21" customHeight="1">
       <c r="H832" s="1"/>
-      <c r="I832" s="5"/>
+      <c r="I832" s="6"/>
       <c r="J832" s="2"/>
     </row>
     <row r="833" spans="8:10" ht="21" customHeight="1">
       <c r="H833" s="1"/>
-      <c r="I833" s="5"/>
+      <c r="I833" s="6"/>
       <c r="J833" s="2"/>
     </row>
     <row r="834" spans="8:10" ht="21" customHeight="1">
       <c r="H834" s="1"/>
-      <c r="I834" s="5"/>
+      <c r="I834" s="6"/>
       <c r="J834" s="2"/>
     </row>
     <row r="835" spans="8:10" ht="21" customHeight="1">
       <c r="H835" s="1"/>
-      <c r="I835" s="5"/>
+      <c r="I835" s="6"/>
       <c r="J835" s="2"/>
     </row>
     <row r="836" spans="8:10" ht="21" customHeight="1">
       <c r="H836" s="1"/>
-      <c r="I836" s="5"/>
+      <c r="I836" s="6"/>
       <c r="J836" s="2"/>
     </row>
     <row r="837" spans="8:10" ht="21" customHeight="1">
       <c r="H837" s="1"/>
-      <c r="I837" s="5"/>
+      <c r="I837" s="6"/>
       <c r="J837" s="2"/>
     </row>
     <row r="838" spans="8:10" ht="21" customHeight="1">
       <c r="H838" s="1"/>
-      <c r="I838" s="5"/>
+      <c r="I838" s="6"/>
       <c r="J838" s="2"/>
     </row>
     <row r="839" spans="8:10" ht="21" customHeight="1">
       <c r="H839" s="1"/>
-      <c r="I839" s="5"/>
+      <c r="I839" s="6"/>
       <c r="J839" s="2"/>
     </row>
     <row r="840" spans="8:10" ht="21" customHeight="1">
       <c r="H840" s="1"/>
-      <c r="I840" s="5"/>
+      <c r="I840" s="6"/>
       <c r="J840" s="2"/>
     </row>
     <row r="841" spans="8:10" ht="21" customHeight="1">
       <c r="H841" s="1"/>
-      <c r="I841" s="5"/>
+      <c r="I841" s="6"/>
       <c r="J841" s="2"/>
     </row>
     <row r="842" spans="8:10" ht="21" customHeight="1">
       <c r="H842" s="1"/>
-      <c r="I842" s="5"/>
+      <c r="I842" s="6"/>
       <c r="J842" s="2"/>
     </row>
     <row r="843" spans="8:10" ht="21" customHeight="1">
       <c r="H843" s="1"/>
-      <c r="I843" s="5"/>
+      <c r="I843" s="6"/>
       <c r="J843" s="2"/>
     </row>
     <row r="844" spans="8:10" ht="21" customHeight="1">
       <c r="H844" s="1"/>
-      <c r="I844" s="5"/>
+      <c r="I844" s="6"/>
       <c r="J844" s="2"/>
     </row>
     <row r="845" spans="8:10" ht="21" customHeight="1">
       <c r="H845" s="1"/>
-      <c r="I845" s="5"/>
+      <c r="I845" s="6"/>
       <c r="J845" s="2"/>
     </row>
     <row r="846" spans="8:10" ht="21" customHeight="1">
       <c r="H846" s="1"/>
-      <c r="I846" s="5"/>
+      <c r="I846" s="6"/>
       <c r="J846" s="2"/>
     </row>
     <row r="847" spans="8:10" ht="21" customHeight="1">
       <c r="H847" s="1"/>
-      <c r="I847" s="5"/>
+      <c r="I847" s="6"/>
       <c r="J847" s="2"/>
     </row>
     <row r="848" spans="8:10" ht="21" customHeight="1">
       <c r="H848" s="1"/>
-      <c r="I848" s="5"/>
+      <c r="I848" s="6"/>
       <c r="J848" s="2"/>
     </row>
     <row r="849" spans="8:10" ht="21" customHeight="1">
       <c r="H849" s="1"/>
-      <c r="I849" s="5"/>
+      <c r="I849" s="6"/>
       <c r="J849" s="2"/>
     </row>
     <row r="850" spans="8:10" ht="21" customHeight="1">
       <c r="H850" s="1"/>
-      <c r="I850" s="5"/>
+      <c r="I850" s="6"/>
       <c r="J850" s="2"/>
     </row>
     <row r="851" spans="8:10" ht="21" customHeight="1">
       <c r="H851" s="1"/>
-      <c r="I851" s="5"/>
+      <c r="I851" s="6"/>
       <c r="J851" s="2"/>
     </row>
     <row r="852" spans="8:10" ht="21" customHeight="1">
       <c r="H852" s="1"/>
-      <c r="I852" s="5"/>
+      <c r="I852" s="6"/>
       <c r="J852" s="2"/>
     </row>
     <row r="853" spans="8:10" ht="21" customHeight="1">
       <c r="H853" s="1"/>
-      <c r="I853" s="5"/>
+      <c r="I853" s="6"/>
       <c r="J853" s="2"/>
     </row>
     <row r="854" spans="8:10" ht="21" customHeight="1">
       <c r="H854" s="1"/>
-      <c r="I854" s="5"/>
+      <c r="I854" s="6"/>
       <c r="J854" s="2"/>
     </row>
     <row r="855" spans="8:10" ht="21" customHeight="1">
       <c r="H855" s="1"/>
-      <c r="I855" s="5"/>
+      <c r="I855" s="6"/>
       <c r="J855" s="2"/>
     </row>
     <row r="856" spans="8:10" ht="21" customHeight="1">
       <c r="H856" s="1"/>
-      <c r="I856" s="5"/>
+      <c r="I856" s="6"/>
       <c r="J856" s="2"/>
     </row>
     <row r="857" spans="8:10" ht="21" customHeight="1">
       <c r="H857" s="1"/>
-      <c r="I857" s="5"/>
+      <c r="I857" s="6"/>
       <c r="J857" s="2"/>
     </row>
     <row r="858" spans="8:10" ht="21" customHeight="1">
       <c r="H858" s="1"/>
-      <c r="I858" s="5"/>
+      <c r="I858" s="6"/>
       <c r="J858" s="2"/>
     </row>
     <row r="859" spans="8:10" ht="21" customHeight="1">
       <c r="H859" s="1"/>
-      <c r="I859" s="5"/>
+      <c r="I859" s="6"/>
       <c r="J859" s="2"/>
     </row>
     <row r="860" spans="8:10" ht="21" customHeight="1">
       <c r="H860" s="1"/>
-      <c r="I860" s="5"/>
+      <c r="I860" s="6"/>
       <c r="J860" s="2"/>
     </row>
     <row r="861" spans="8:10" ht="21" customHeight="1">
       <c r="H861" s="1"/>
-      <c r="I861" s="5"/>
+      <c r="I861" s="6"/>
       <c r="J861" s="2"/>
     </row>
     <row r="862" spans="8:10" ht="21" customHeight="1">
       <c r="H862" s="1"/>
-      <c r="I862" s="5"/>
+      <c r="I862" s="6"/>
       <c r="J862" s="2"/>
     </row>
     <row r="863" spans="8:10" ht="21" customHeight="1">
       <c r="H863" s="1"/>
-      <c r="I863" s="5"/>
+      <c r="I863" s="6"/>
       <c r="J863" s="2"/>
     </row>
     <row r="864" spans="8:10" ht="21" customHeight="1">
       <c r="H864" s="1"/>
-      <c r="I864" s="5"/>
+      <c r="I864" s="6"/>
       <c r="J864" s="2"/>
     </row>
     <row r="865" spans="8:10" ht="21" customHeight="1">
       <c r="H865" s="1"/>
-      <c r="I865" s="5"/>
+      <c r="I865" s="6"/>
       <c r="J865" s="2"/>
     </row>
     <row r="866" spans="8:10" ht="21" customHeight="1">
       <c r="H866" s="1"/>
-      <c r="I866" s="5"/>
+      <c r="I866" s="6"/>
       <c r="J866" s="2"/>
     </row>
     <row r="867" spans="8:10" ht="21" customHeight="1">
       <c r="H867" s="1"/>
-      <c r="I867" s="5"/>
+      <c r="I867" s="6"/>
       <c r="J867" s="2"/>
     </row>
     <row r="868" spans="8:10" ht="21" customHeight="1">
       <c r="H868" s="1"/>
-      <c r="I868" s="5"/>
+      <c r="I868" s="6"/>
       <c r="J868" s="2"/>
     </row>
     <row r="869" spans="8:10" ht="21" customHeight="1">
       <c r="H869" s="1"/>
-      <c r="I869" s="5"/>
+      <c r="I869" s="6"/>
       <c r="J869" s="2"/>
     </row>
     <row r="870" spans="8:10" ht="21" customHeight="1">
       <c r="H870" s="1"/>
-      <c r="I870" s="5"/>
+      <c r="I870" s="6"/>
       <c r="J870" s="2"/>
     </row>
     <row r="871" spans="8:10" ht="21" customHeight="1">
       <c r="H871" s="1"/>
-      <c r="I871" s="5"/>
+      <c r="I871" s="6"/>
       <c r="J871" s="2"/>
     </row>
     <row r="872" spans="8:10" ht="21" customHeight="1">
       <c r="H872" s="1"/>
-      <c r="I872" s="5"/>
+      <c r="I872" s="6"/>
       <c r="J872" s="2"/>
     </row>
     <row r="873" spans="8:10" ht="21" customHeight="1">
       <c r="H873" s="1"/>
-      <c r="I873" s="5"/>
+      <c r="I873" s="6"/>
       <c r="J873" s="2"/>
     </row>
     <row r="874" spans="8:10" ht="21" customHeight="1">
       <c r="H874" s="1"/>
-      <c r="I874" s="5"/>
+      <c r="I874" s="6"/>
       <c r="J874" s="2"/>
     </row>
     <row r="875" spans="8:10" ht="21" customHeight="1">
       <c r="H875" s="1"/>
-      <c r="I875" s="5"/>
+      <c r="I875" s="6"/>
       <c r="J875" s="2"/>
     </row>
     <row r="876" spans="8:10" ht="21" customHeight="1">
       <c r="H876" s="1"/>
-      <c r="I876" s="5"/>
+      <c r="I876" s="6"/>
       <c r="J876" s="2"/>
     </row>
     <row r="877" spans="8:10" ht="21" customHeight="1">
       <c r="H877" s="1"/>
-      <c r="I877" s="5"/>
+      <c r="I877" s="6"/>
       <c r="J877" s="2"/>
     </row>
     <row r="878" spans="8:10" ht="21" customHeight="1">
       <c r="H878" s="1"/>
-      <c r="I878" s="5"/>
+      <c r="I878" s="6"/>
       <c r="J878" s="2"/>
     </row>
     <row r="879" spans="8:10" ht="21" customHeight="1">
       <c r="H879" s="1"/>
-      <c r="I879" s="5"/>
+      <c r="I879" s="6"/>
       <c r="J879" s="2"/>
     </row>
     <row r="880" spans="8:10" ht="21" customHeight="1">
       <c r="H880" s="1"/>
-      <c r="I880" s="5"/>
+      <c r="I880" s="6"/>
       <c r="J880" s="2"/>
     </row>
     <row r="881" spans="8:10" ht="21" customHeight="1">
       <c r="H881" s="1"/>
-      <c r="I881" s="5"/>
+      <c r="I881" s="6"/>
       <c r="J881" s="2"/>
     </row>
     <row r="882" spans="8:10" ht="21" customHeight="1">
       <c r="H882" s="1"/>
-      <c r="I882" s="5"/>
+      <c r="I882" s="6"/>
       <c r="J882" s="2"/>
     </row>
     <row r="883" spans="8:10" ht="21" customHeight="1">
       <c r="H883" s="1"/>
-      <c r="I883" s="5"/>
+      <c r="I883" s="6"/>
       <c r="J883" s="2"/>
     </row>
     <row r="884" spans="8:10" ht="21" customHeight="1">
       <c r="H884" s="1"/>
-      <c r="I884" s="5"/>
+      <c r="I884" s="6"/>
       <c r="J884" s="2"/>
     </row>
     <row r="885" spans="8:10" ht="21" customHeight="1">
       <c r="H885" s="1"/>
-      <c r="I885" s="5"/>
+      <c r="I885" s="6"/>
       <c r="J885" s="2"/>
     </row>
     <row r="886" spans="8:10" ht="21" customHeight="1">
       <c r="H886" s="1"/>
-      <c r="I886" s="5"/>
+      <c r="I886" s="6"/>
       <c r="J886" s="2"/>
     </row>
     <row r="887" spans="8:10" ht="21" customHeight="1">
       <c r="H887" s="1"/>
-      <c r="I887" s="5"/>
+      <c r="I887" s="6"/>
       <c r="J887" s="2"/>
     </row>
     <row r="888" spans="8:10" ht="21" customHeight="1">
       <c r="H888" s="1"/>
-      <c r="I888" s="5"/>
+      <c r="I888" s="6"/>
       <c r="J888" s="2"/>
     </row>
     <row r="889" spans="8:10" ht="21" customHeight="1">
       <c r="H889" s="1"/>
-      <c r="I889" s="5"/>
+      <c r="I889" s="6"/>
       <c r="J889" s="2"/>
     </row>
     <row r="890" spans="8:10" ht="21" customHeight="1">
       <c r="H890" s="1"/>
-      <c r="I890" s="5"/>
+      <c r="I890" s="6"/>
       <c r="J890" s="2"/>
     </row>
     <row r="891" spans="8:10" ht="21" customHeight="1">
       <c r="H891" s="1"/>
-      <c r="I891" s="5"/>
+      <c r="I891" s="6"/>
       <c r="J891" s="2"/>
     </row>
     <row r="892" spans="8:10" ht="21" customHeight="1">
       <c r="H892" s="1"/>
-      <c r="I892" s="5"/>
+      <c r="I892" s="6"/>
       <c r="J892" s="2"/>
     </row>
     <row r="893" spans="8:10" ht="21" customHeight="1">
       <c r="H893" s="1"/>
-      <c r="I893" s="5"/>
+      <c r="I893" s="6"/>
       <c r="J893" s="2"/>
     </row>
     <row r="894" spans="8:10" ht="21" customHeight="1">
       <c r="H894" s="1"/>
-      <c r="I894" s="5"/>
+      <c r="I894" s="6"/>
       <c r="J894" s="2"/>
     </row>
     <row r="895" spans="8:10" ht="21" customHeight="1">
       <c r="H895" s="1"/>
-      <c r="I895" s="5"/>
+      <c r="I895" s="6"/>
       <c r="J895" s="2"/>
     </row>
     <row r="896" spans="8:10" ht="21" customHeight="1">
       <c r="H896" s="1"/>
-      <c r="I896" s="5"/>
+      <c r="I896" s="6"/>
       <c r="J896" s="2"/>
     </row>
     <row r="897" spans="8:10" ht="21" customHeight="1">
       <c r="H897" s="1"/>
-      <c r="I897" s="5"/>
+      <c r="I897" s="6"/>
       <c r="J897" s="2"/>
     </row>
     <row r="898" spans="8:10" ht="21" customHeight="1">
       <c r="H898" s="1"/>
-      <c r="I898" s="5"/>
+      <c r="I898" s="6"/>
       <c r="J898" s="2"/>
     </row>
     <row r="899" spans="8:10" ht="21" customHeight="1">
       <c r="H899" s="1"/>
-      <c r="I899" s="5"/>
+      <c r="I899" s="6"/>
       <c r="J899" s="2"/>
     </row>
     <row r="900" spans="8:10" ht="21" customHeight="1">
       <c r="H900" s="1"/>
-      <c r="I900" s="5"/>
+      <c r="I900" s="6"/>
       <c r="J900" s="2"/>
     </row>
     <row r="901" spans="8:10" ht="21" customHeight="1">
       <c r="H901" s="1"/>
-      <c r="I901" s="5"/>
+      <c r="I901" s="6"/>
       <c r="J901" s="2"/>
     </row>
     <row r="902" spans="8:10" ht="21" customHeight="1">
       <c r="H902" s="1"/>
-      <c r="I902" s="5"/>
+      <c r="I902" s="6"/>
       <c r="J902" s="2"/>
     </row>
     <row r="903" spans="8:10" ht="21" customHeight="1">
       <c r="H903" s="1"/>
-      <c r="I903" s="5"/>
+      <c r="I903" s="6"/>
       <c r="J903" s="2"/>
     </row>
     <row r="904" spans="8:10" ht="21" customHeight="1">
       <c r="H904" s="1"/>
-      <c r="I904" s="5"/>
+      <c r="I904" s="6"/>
       <c r="J904" s="2"/>
     </row>
     <row r="905" spans="8:10" ht="21" customHeight="1">
       <c r="H905" s="1"/>
-      <c r="I905" s="5"/>
+      <c r="I905" s="6"/>
       <c r="J905" s="2"/>
     </row>
     <row r="906" spans="8:10" ht="21" customHeight="1">
       <c r="H906" s="1"/>
-      <c r="I906" s="5"/>
+      <c r="I906" s="6"/>
       <c r="J906" s="2"/>
     </row>
     <row r="907" spans="8:10" ht="21" customHeight="1">
       <c r="H907" s="1"/>
-      <c r="I907" s="5"/>
+      <c r="I907" s="6"/>
       <c r="J907" s="2"/>
     </row>
     <row r="908" spans="8:10" ht="21" customHeight="1">
       <c r="H908" s="1"/>
-      <c r="I908" s="5"/>
+      <c r="I908" s="6"/>
       <c r="J908" s="2"/>
     </row>
     <row r="909" spans="8:10" ht="21" customHeight="1">
       <c r="H909" s="1"/>
-      <c r="I909" s="5"/>
+      <c r="I909" s="6"/>
       <c r="J909" s="2"/>
     </row>
     <row r="910" spans="8:10" ht="21" customHeight="1">
       <c r="H910" s="1"/>
-      <c r="I910" s="5"/>
+      <c r="I910" s="6"/>
       <c r="J910" s="2"/>
     </row>
     <row r="911" spans="8:10" ht="21" customHeight="1">
       <c r="H911" s="1"/>
-      <c r="I911" s="5"/>
+      <c r="I911" s="6"/>
       <c r="J911" s="2"/>
     </row>
     <row r="912" spans="8:10" ht="21" customHeight="1">
       <c r="H912" s="1"/>
-      <c r="I912" s="5"/>
+      <c r="I912" s="6"/>
       <c r="J912" s="2"/>
     </row>
     <row r="913" spans="8:10" ht="21" customHeight="1">
       <c r="H913" s="1"/>
-      <c r="I913" s="5"/>
+      <c r="I913" s="6"/>
       <c r="J913" s="2"/>
     </row>
     <row r="914" spans="8:10" ht="21" customHeight="1">
       <c r="H914" s="1"/>
-      <c r="I914" s="5"/>
+      <c r="I914" s="6"/>
       <c r="J914" s="2"/>
     </row>
     <row r="915" spans="8:10" ht="21" customHeight="1">
       <c r="H915" s="1"/>
-      <c r="I915" s="5"/>
+      <c r="I915" s="6"/>
       <c r="J915" s="2"/>
     </row>
     <row r="916" spans="8:10" ht="21" customHeight="1">
       <c r="H916" s="1"/>
-      <c r="I916" s="5"/>
+      <c r="I916" s="6"/>
       <c r="J916" s="2"/>
     </row>
     <row r="917" spans="8:10" ht="21" customHeight="1">
       <c r="H917" s="1"/>
-      <c r="I917" s="5"/>
+      <c r="I917" s="6"/>
       <c r="J917" s="2"/>
     </row>
     <row r="918" spans="8:10" ht="21" customHeight="1">
       <c r="H918" s="1"/>
-      <c r="I918" s="5"/>
+      <c r="I918" s="6"/>
       <c r="J918" s="2"/>
     </row>
     <row r="919" spans="8:10" ht="21" customHeight="1">
       <c r="H919" s="1"/>
-      <c r="I919" s="5"/>
+      <c r="I919" s="6"/>
       <c r="J919" s="2"/>
     </row>
     <row r="920" spans="8:10" ht="21" customHeight="1">
       <c r="H920" s="1"/>
-      <c r="I920" s="5"/>
+      <c r="I920" s="6"/>
       <c r="J920" s="2"/>
     </row>
     <row r="921" spans="8:10" ht="21" customHeight="1">
       <c r="H921" s="1"/>
-      <c r="I921" s="5"/>
+      <c r="I921" s="6"/>
       <c r="J921" s="2"/>
     </row>
     <row r="922" spans="8:10" ht="21" customHeight="1">
       <c r="H922" s="1"/>
-      <c r="I922" s="5"/>
+      <c r="I922" s="6"/>
       <c r="J922" s="2"/>
     </row>
     <row r="923" spans="8:10" ht="21" customHeight="1">
       <c r="H923" s="1"/>
-      <c r="I923" s="5"/>
+      <c r="I923" s="6"/>
       <c r="J923" s="2"/>
     </row>
     <row r="924" spans="8:10" ht="21" customHeight="1">
       <c r="H924" s="1"/>
-      <c r="I924" s="5"/>
+      <c r="I924" s="6"/>
       <c r="J924" s="2"/>
     </row>
     <row r="925" spans="8:10" ht="21" customHeight="1">
       <c r="H925" s="1"/>
-      <c r="I925" s="5"/>
+      <c r="I925" s="6"/>
       <c r="J925" s="2"/>
     </row>
     <row r="926" spans="8:10" ht="21" customHeight="1">
       <c r="H926" s="1"/>
-      <c r="I926" s="5"/>
+      <c r="I926" s="6"/>
       <c r="J926" s="2"/>
     </row>
     <row r="927" spans="8:10" ht="21" customHeight="1">
       <c r="H927" s="1"/>
-      <c r="I927" s="5"/>
+      <c r="I927" s="6"/>
       <c r="J927" s="2"/>
     </row>
     <row r="928" spans="8:10" ht="21" customHeight="1">
       <c r="H928" s="1"/>
-      <c r="I928" s="5"/>
+      <c r="I928" s="6"/>
       <c r="J928" s="2"/>
     </row>
     <row r="929" spans="8:10" ht="21" customHeight="1">
       <c r="H929" s="1"/>
-      <c r="I929" s="5"/>
+      <c r="I929" s="6"/>
       <c r="J929" s="2"/>
     </row>
     <row r="930" spans="8:10" ht="21" customHeight="1">
       <c r="H930" s="1"/>
-      <c r="I930" s="5"/>
+      <c r="I930" s="6"/>
       <c r="J930" s="2"/>
     </row>
     <row r="931" spans="8:10" ht="21" customHeight="1">
       <c r="H931" s="1"/>
-      <c r="I931" s="5"/>
+      <c r="I931" s="6"/>
       <c r="J931" s="2"/>
     </row>
     <row r="932" spans="8:10" ht="21" customHeight="1">
       <c r="H932" s="1"/>
-      <c r="I932" s="5"/>
+      <c r="I932" s="6"/>
       <c r="J932" s="2"/>
     </row>
     <row r="933" spans="8:10" ht="21" customHeight="1">
       <c r="H933" s="1"/>
-      <c r="I933" s="5"/>
+      <c r="I933" s="6"/>
       <c r="J933" s="2"/>
     </row>
     <row r="934" spans="8:10" ht="21" customHeight="1">
       <c r="H934" s="1"/>
-      <c r="I934" s="5"/>
+      <c r="I934" s="6"/>
       <c r="J934" s="2"/>
     </row>
     <row r="935" spans="8:10" ht="21" customHeight="1">
       <c r="H935" s="1"/>
-      <c r="I935" s="5"/>
+      <c r="I935" s="6"/>
       <c r="J935" s="2"/>
     </row>
     <row r="936" spans="8:10" ht="21" customHeight="1">
       <c r="H936" s="1"/>
-      <c r="I936" s="5"/>
+      <c r="I936" s="6"/>
       <c r="J936" s="2"/>
     </row>
     <row r="937" spans="8:10" ht="21" customHeight="1">
       <c r="H937" s="1"/>
-      <c r="I937" s="5"/>
+      <c r="I937" s="6"/>
       <c r="J937" s="2"/>
     </row>
     <row r="938" spans="8:10" ht="21" customHeight="1">
       <c r="H938" s="1"/>
-      <c r="I938" s="5"/>
+      <c r="I938" s="6"/>
       <c r="J938" s="2"/>
     </row>
     <row r="939" spans="8:10" ht="21" customHeight="1">
       <c r="H939" s="1"/>
-      <c r="I939" s="5"/>
+      <c r="I939" s="6"/>
       <c r="J939" s="2"/>
     </row>
     <row r="940" spans="8:10" ht="21" customHeight="1">
       <c r="H940" s="1"/>
-      <c r="I940" s="5"/>
+      <c r="I940" s="6"/>
       <c r="J940" s="2"/>
     </row>
     <row r="941" spans="8:10" ht="21" customHeight="1">
       <c r="H941" s="1"/>
-      <c r="I941" s="5"/>
+      <c r="I941" s="6"/>
       <c r="J941" s="2"/>
     </row>
     <row r="942" spans="8:10" ht="21" customHeight="1">
       <c r="H942" s="1"/>
-      <c r="I942" s="5"/>
+      <c r="I942" s="6"/>
       <c r="J942" s="2"/>
     </row>
     <row r="943" spans="8:10" ht="21" customHeight="1">
       <c r="H943" s="1"/>
-      <c r="I943" s="5"/>
+      <c r="I943" s="6"/>
       <c r="J943" s="2"/>
     </row>
     <row r="944" spans="8:10" ht="21" customHeight="1">
       <c r="H944" s="1"/>
-      <c r="I944" s="5"/>
+      <c r="I944" s="6"/>
       <c r="J944" s="2"/>
     </row>
     <row r="945" spans="8:10" ht="21" customHeight="1">
       <c r="H945" s="1"/>
-      <c r="I945" s="5"/>
+      <c r="I945" s="6"/>
       <c r="J945" s="2"/>
     </row>
     <row r="946" spans="8:10" ht="21" customHeight="1">
       <c r="H946" s="1"/>
-      <c r="I946" s="5"/>
+      <c r="I946" s="6"/>
       <c r="J946" s="2"/>
     </row>
     <row r="947" spans="8:10" ht="21" customHeight="1">
       <c r="H947" s="1"/>
-      <c r="I947" s="5"/>
+      <c r="I947" s="6"/>
       <c r="J947" s="2"/>
     </row>
     <row r="948" spans="8:10" ht="21" customHeight="1">
       <c r="H948" s="1"/>
-      <c r="I948" s="5"/>
+      <c r="I948" s="6"/>
       <c r="J948" s="2"/>
     </row>
     <row r="949" spans="8:10" ht="21" customHeight="1">
       <c r="H949" s="1"/>
-      <c r="I949" s="5"/>
+      <c r="I949" s="6"/>
       <c r="J949" s="2"/>
     </row>
     <row r="950" spans="8:10" ht="21" customHeight="1">
       <c r="H950" s="1"/>
-      <c r="I950" s="5"/>
+      <c r="I950" s="6"/>
       <c r="J950" s="2"/>
     </row>
     <row r="951" spans="8:10" ht="21" customHeight="1">
       <c r="H951" s="1"/>
-      <c r="I951" s="5"/>
+      <c r="I951" s="6"/>
       <c r="J951" s="2"/>
     </row>
     <row r="952" spans="8:10" ht="21" customHeight="1">
       <c r="H952" s="1"/>
-      <c r="I952" s="5"/>
+      <c r="I952" s="6"/>
       <c r="J952" s="2"/>
     </row>
     <row r="953" spans="8:10" ht="21" customHeight="1">
       <c r="H953" s="1"/>
-      <c r="I953" s="5"/>
+      <c r="I953" s="6"/>
       <c r="J953" s="2"/>
     </row>
     <row r="954" spans="8:10" ht="21" customHeight="1">
       <c r="H954" s="1"/>
-      <c r="I954" s="5"/>
+      <c r="I954" s="6"/>
       <c r="J954" s="2"/>
     </row>
     <row r="955" spans="8:10" ht="21" customHeight="1">
       <c r="H955" s="1"/>
-      <c r="I955" s="5"/>
+      <c r="I955" s="6"/>
       <c r="J955" s="2"/>
     </row>
     <row r="956" spans="8:10" ht="21" customHeight="1">
       <c r="H956" s="1"/>
-      <c r="I956" s="5"/>
+      <c r="I956" s="6"/>
       <c r="J956" s="2"/>
     </row>
     <row r="957" spans="8:10" ht="21" customHeight="1">
       <c r="H957" s="1"/>
-      <c r="I957" s="5"/>
+      <c r="I957" s="6"/>
       <c r="J957" s="2"/>
     </row>
     <row r="958" spans="8:10" ht="21" customHeight="1">
       <c r="H958" s="1"/>
-      <c r="I958" s="5"/>
+      <c r="I958" s="6"/>
       <c r="J958" s="2"/>
     </row>
     <row r="959" spans="8:10" ht="21" customHeight="1">
       <c r="H959" s="1"/>
-      <c r="I959" s="5"/>
+      <c r="I959" s="6"/>
       <c r="J959" s="2"/>
     </row>
     <row r="960" spans="8:10" ht="21" customHeight="1">
       <c r="H960" s="1"/>
-      <c r="I960" s="5"/>
+      <c r="I960" s="6"/>
       <c r="J960" s="2"/>
     </row>
     <row r="961" spans="8:10" ht="21" customHeight="1">
       <c r="H961" s="1"/>
-      <c r="I961" s="5"/>
+      <c r="I961" s="6"/>
       <c r="J961" s="2"/>
     </row>
     <row r="962" spans="8:10" ht="21" customHeight="1">
       <c r="H962" s="1"/>
-      <c r="I962" s="5"/>
+      <c r="I962" s="6"/>
       <c r="J962" s="2"/>
     </row>
     <row r="963" spans="8:10" ht="21" customHeight="1">
       <c r="H963" s="1"/>
-      <c r="I963" s="5"/>
+      <c r="I963" s="6"/>
       <c r="J963" s="2"/>
     </row>
     <row r="964" spans="8:10" ht="21" customHeight="1">
       <c r="H964" s="1"/>
-      <c r="I964" s="5"/>
+      <c r="I964" s="6"/>
       <c r="J964" s="2"/>
     </row>
     <row r="965" spans="8:10" ht="21" customHeight="1">
       <c r="H965" s="1"/>
-      <c r="I965" s="5"/>
+      <c r="I965" s="6"/>
       <c r="J965" s="2"/>
     </row>
     <row r="966" spans="8:10" ht="21" customHeight="1">
       <c r="H966" s="1"/>
-      <c r="I966" s="5"/>
+      <c r="I966" s="6"/>
       <c r="J966" s="2"/>
     </row>
     <row r="967" spans="8:10" ht="21" customHeight="1">
       <c r="H967" s="1"/>
-      <c r="I967" s="5"/>
+      <c r="I967" s="6"/>
       <c r="J967" s="2"/>
     </row>
     <row r="968" spans="8:10" ht="21" customHeight="1">
       <c r="H968" s="1"/>
-      <c r="I968" s="5"/>
+      <c r="I968" s="6"/>
       <c r="J968" s="2"/>
     </row>
     <row r="969" spans="8:10" ht="21" customHeight="1">
       <c r="H969" s="1"/>
-      <c r="I969" s="5"/>
+      <c r="I969" s="6"/>
       <c r="J969" s="2"/>
     </row>
     <row r="970" spans="8:10" ht="21" customHeight="1">
       <c r="H970" s="1"/>
-      <c r="I970" s="5"/>
+      <c r="I970" s="6"/>
       <c r="J970" s="2"/>
     </row>
     <row r="971" spans="8:10" ht="21" customHeight="1">
       <c r="H971" s="1"/>
-      <c r="I971" s="5"/>
+      <c r="I971" s="6"/>
       <c r="J971" s="2"/>
     </row>
     <row r="972" spans="8:10" ht="21" customHeight="1">
       <c r="H972" s="1"/>
-      <c r="I972" s="5"/>
+      <c r="I972" s="6"/>
       <c r="J972" s="2"/>
     </row>
     <row r="973" spans="8:10" ht="21" customHeight="1">
       <c r="H973" s="1"/>
-      <c r="I973" s="5"/>
+      <c r="I973" s="6"/>
       <c r="J973" s="2"/>
     </row>
     <row r="974" spans="8:10" ht="21" customHeight="1">
       <c r="H974" s="1"/>
-      <c r="I974" s="5"/>
+      <c r="I974" s="6"/>
       <c r="J974" s="2"/>
     </row>
     <row r="975" spans="8:10" ht="21" customHeight="1">
       <c r="H975" s="1"/>
-      <c r="I975" s="5"/>
+      <c r="I975" s="6"/>
       <c r="J975" s="2"/>
     </row>
     <row r="976" spans="8:10" ht="21" customHeight="1">
       <c r="H976" s="1"/>
-      <c r="I976" s="5"/>
+      <c r="I976" s="6"/>
       <c r="J976" s="2"/>
     </row>
     <row r="977" spans="8:10" ht="21" customHeight="1">
       <c r="H977" s="1"/>
-      <c r="I977" s="5"/>
+      <c r="I977" s="6"/>
       <c r="J977" s="2"/>
     </row>
     <row r="978" spans="8:10" ht="21" customHeight="1">
       <c r="H978" s="1"/>
-      <c r="I978" s="5"/>
+      <c r="I978" s="6"/>
       <c r="J978" s="2"/>
     </row>
     <row r="979" spans="8:10" ht="21" customHeight="1">
       <c r="H979" s="1"/>
-      <c r="I979" s="5"/>
+      <c r="I979" s="6"/>
       <c r="J979" s="2"/>
     </row>
     <row r="980" spans="8:10" ht="21" customHeight="1">
       <c r="H980" s="1"/>
-      <c r="I980" s="5"/>
+      <c r="I980" s="6"/>
       <c r="J980" s="2"/>
     </row>
     <row r="981" spans="8:10" ht="21" customHeight="1">
       <c r="H981" s="1"/>
-      <c r="I981" s="5"/>
+      <c r="I981" s="6"/>
       <c r="J981" s="2"/>
     </row>
     <row r="982" spans="8:10" ht="21" customHeight="1">
       <c r="H982" s="1"/>
-      <c r="I982" s="5"/>
+      <c r="I982" s="6"/>
       <c r="J982" s="2"/>
     </row>
     <row r="983" spans="8:10" ht="21" customHeight="1">
       <c r="H983" s="1"/>
-      <c r="I983" s="5"/>
+      <c r="I983" s="6"/>
       <c r="J983" s="2"/>
     </row>
     <row r="984" spans="8:10" ht="21" customHeight="1">
       <c r="H984" s="1"/>
-      <c r="I984" s="5"/>
+      <c r="I984" s="6"/>
       <c r="J984" s="2"/>
     </row>
     <row r="985" spans="8:10" ht="21" customHeight="1">
       <c r="H985" s="1"/>
-      <c r="I985" s="5"/>
+      <c r="I985" s="6"/>
       <c r="J985" s="2"/>
     </row>
     <row r="986" spans="8:10" ht="21" customHeight="1">
       <c r="H986" s="1"/>
-      <c r="I986" s="5"/>
+      <c r="I986" s="6"/>
       <c r="J986" s="2"/>
     </row>
     <row r="987" spans="8:10" ht="21" customHeight="1">
       <c r="H987" s="1"/>
-      <c r="I987" s="5"/>
+      <c r="I987" s="6"/>
       <c r="J987" s="2"/>
     </row>
     <row r="988" spans="8:10" ht="21" customHeight="1">
       <c r="H988" s="1"/>
-      <c r="I988" s="5"/>
+      <c r="I988" s="6"/>
       <c r="J988" s="2"/>
     </row>
     <row r="989" spans="8:10" ht="21" customHeight="1">
       <c r="H989" s="1"/>
-      <c r="I989" s="5"/>
+      <c r="I989" s="6"/>
       <c r="J989" s="2"/>
     </row>
     <row r="990" spans="8:10" ht="21" customHeight="1">
       <c r="H990" s="1"/>
-      <c r="I990" s="5"/>
+      <c r="I990" s="6"/>
       <c r="J990" s="2"/>
     </row>
     <row r="991" spans="8:10" ht="21" customHeight="1">
       <c r="H991" s="1"/>
-      <c r="I991" s="5"/>
+      <c r="I991" s="6"/>
       <c r="J991" s="2"/>
     </row>
     <row r="992" spans="8:10" ht="21" customHeight="1">
       <c r="H992" s="1"/>
-      <c r="I992" s="5"/>
+      <c r="I992" s="6"/>
       <c r="J992" s="2"/>
     </row>
     <row r="993" spans="8:10" ht="21" customHeight="1">
       <c r="H993" s="1"/>
-      <c r="I993" s="5"/>
+      <c r="I993" s="6"/>
       <c r="J993" s="2"/>
     </row>
     <row r="994" spans="8:10" ht="21" customHeight="1">
       <c r="H994" s="1"/>
-      <c r="I994" s="5"/>
+      <c r="I994" s="6"/>
       <c r="J994" s="2"/>
     </row>
     <row r="995" spans="8:10" ht="21" customHeight="1">
       <c r="H995" s="1"/>
-      <c r="I995" s="5"/>
+      <c r="I995" s="6"/>
       <c r="J995" s="2"/>
     </row>
     <row r="996" spans="8:10" ht="21" customHeight="1">
       <c r="H996" s="1"/>
-      <c r="I996" s="5"/>
+      <c r="I996" s="6"/>
       <c r="J996" s="2"/>
     </row>
     <row r="997" spans="8:10" ht="21" customHeight="1">
       <c r="H997" s="1"/>
-      <c r="I997" s="5"/>
+      <c r="I997" s="6"/>
       <c r="J997" s="2"/>
     </row>
     <row r="998" spans="8:10" ht="21" customHeight="1">
       <c r="H998" s="1"/>
-      <c r="I998" s="5"/>
+      <c r="I998" s="6"/>
       <c r="J998" s="2"/>
     </row>
     <row r="999" spans="8:10" ht="21" customHeight="1">
       <c r="H999" s="1"/>
-      <c r="I999" s="5"/>
+      <c r="I999" s="6"/>
       <c r="J999" s="2"/>
     </row>
     <row r="1000" spans="8:10" ht="21" customHeight="1">
       <c r="H1000" s="1"/>
-      <c r="I1000" s="5"/>
+      <c r="I1000" s="6"/>
       <c r="J1000" s="2"/>
     </row>
     <row r="1001" spans="8:10" ht="21" customHeight="1">
       <c r="H1001" s="1"/>
-      <c r="I1001" s="5"/>
+      <c r="I1001" s="6"/>
       <c r="J1001" s="2"/>
     </row>
     <row r="1002" spans="8:10" ht="21" customHeight="1">
       <c r="H1002" s="1"/>
-      <c r="I1002" s="5"/>
+      <c r="I1002" s="6"/>
       <c r="J1002" s="2"/>
     </row>
     <row r="1003" spans="8:10" ht="21" customHeight="1">
       <c r="H1003" s="1"/>
-      <c r="I1003" s="5"/>
+      <c r="I1003" s="6"/>
       <c r="J1003" s="2"/>
     </row>
     <row r="1004" spans="8:10" ht="21" customHeight="1">
       <c r="H1004" s="1"/>
-      <c r="I1004" s="5"/>
+      <c r="I1004" s="6"/>
       <c r="J1004" s="2"/>
     </row>
     <row r="1005" spans="8:10" ht="21" customHeight="1">
       <c r="H1005" s="1"/>
-      <c r="I1005" s="5"/>
+      <c r="I1005" s="6"/>
       <c r="J1005" s="2"/>
     </row>
     <row r="1006" spans="8:10" ht="21" customHeight="1">
       <c r="H1006" s="1"/>
-      <c r="I1006" s="5"/>
+      <c r="I1006" s="6"/>
       <c r="J1006" s="2"/>
     </row>
     <row r="1007" spans="8:10" ht="21" customHeight="1">
       <c r="H1007" s="1"/>
-      <c r="I1007" s="5"/>
+      <c r="I1007" s="6"/>
       <c r="J1007" s="2"/>
     </row>
     <row r="1008" spans="8:10" ht="21" customHeight="1">
       <c r="H1008" s="1"/>
-      <c r="I1008" s="5"/>
+      <c r="I1008" s="6"/>
       <c r="J1008" s="2"/>
     </row>
     <row r="1009" spans="8:10" ht="21" customHeight="1">
       <c r="H1009" s="1"/>
-      <c r="I1009" s="5"/>
+      <c r="I1009" s="6"/>
       <c r="J1009" s="2"/>
     </row>
     <row r="1010" spans="8:10" ht="21" customHeight="1">
       <c r="H1010" s="1"/>
-      <c r="I1010" s="5"/>
+      <c r="I1010" s="6"/>
       <c r="J1010" s="2"/>
     </row>
     <row r="1011" spans="8:10" ht="21" customHeight="1">
       <c r="H1011" s="1"/>
-      <c r="I1011" s="5"/>
+      <c r="I1011" s="6"/>
       <c r="J1011" s="2"/>
     </row>
     <row r="1012" spans="8:10" ht="21" customHeight="1">
       <c r="H1012" s="1"/>
-      <c r="I1012" s="5"/>
+      <c r="I1012" s="6"/>
       <c r="J1012" s="2"/>
     </row>
     <row r="1013" spans="8:10" ht="21" customHeight="1">
       <c r="H1013" s="1"/>
-      <c r="I1013" s="5"/>
+      <c r="I1013" s="6"/>
       <c r="J1013" s="2"/>
     </row>
     <row r="1014" spans="8:10" ht="21" customHeight="1">
       <c r="H1014" s="1"/>
-      <c r="I1014" s="5"/>
+      <c r="I1014" s="6"/>
       <c r="J1014" s="2"/>
     </row>
     <row r="1015" spans="8:10" ht="21" customHeight="1">
       <c r="H1015" s="1"/>
-      <c r="I1015" s="5"/>
+      <c r="I1015" s="6"/>
       <c r="J1015" s="2"/>
     </row>
     <row r="1016" spans="8:10" ht="21" customHeight="1">
       <c r="H1016" s="1"/>
-      <c r="I1016" s="5"/>
+      <c r="I1016" s="6"/>
       <c r="J1016" s="2"/>
     </row>
     <row r="1017" spans="8:10" ht="21" customHeight="1">
       <c r="H1017" s="1"/>
-      <c r="I1017" s="5"/>
+      <c r="I1017" s="6"/>
       <c r="J1017" s="2"/>
     </row>
     <row r="1018" spans="8:10" ht="21" customHeight="1">
       <c r="H1018" s="1"/>
-      <c r="I1018" s="5"/>
+      <c r="I1018" s="6"/>
       <c r="J1018" s="2"/>
     </row>
     <row r="1019" spans="8:10" ht="21" customHeight="1">
       <c r="H1019" s="1"/>
-      <c r="I1019" s="5"/>
+      <c r="I1019" s="6"/>
       <c r="J1019" s="2"/>
     </row>
     <row r="1020" spans="8:10" ht="21" customHeight="1">
       <c r="H1020" s="1"/>
-      <c r="I1020" s="5"/>
+      <c r="I1020" s="6"/>
       <c r="J1020" s="2"/>
     </row>
     <row r="1021" spans="8:10" ht="21" customHeight="1">
       <c r="H1021" s="1"/>
-      <c r="I1021" s="5"/>
+      <c r="I1021" s="6"/>
       <c r="J1021" s="2"/>
     </row>
     <row r="1022" spans="8:10" ht="21" customHeight="1">
       <c r="H1022" s="1"/>
-      <c r="I1022" s="5"/>
+      <c r="I1022" s="6"/>
       <c r="J1022" s="2"/>
     </row>
     <row r="1023" spans="8:10" ht="21" customHeight="1">
       <c r="H1023" s="1"/>
-      <c r="I1023" s="5"/>
+      <c r="I1023" s="6"/>
       <c r="J1023" s="2"/>
     </row>
     <row r="1024" spans="8:10" ht="21" customHeight="1">
       <c r="H1024" s="1"/>
-      <c r="I1024" s="5"/>
+      <c r="I1024" s="6"/>
       <c r="J1024" s="2"/>
     </row>
     <row r="1025" spans="8:10" ht="21" customHeight="1">
       <c r="H1025" s="1"/>
-      <c r="I1025" s="5"/>
+      <c r="I1025" s="6"/>
       <c r="J1025" s="2"/>
     </row>
     <row r="1026" spans="8:10" ht="21" customHeight="1">
       <c r="H1026" s="1"/>
-      <c r="I1026" s="5"/>
+      <c r="I1026" s="6"/>
       <c r="J1026" s="2"/>
     </row>
     <row r="1027" spans="8:10" ht="21" customHeight="1">
       <c r="H1027" s="1"/>
-      <c r="I1027" s="5"/>
+      <c r="I1027" s="6"/>
       <c r="J1027" s="2"/>
     </row>
     <row r="1028" spans="8:10" ht="21" customHeight="1">
       <c r="H1028" s="1"/>
-      <c r="I1028" s="5"/>
+      <c r="I1028" s="6"/>
       <c r="J1028" s="2"/>
     </row>
     <row r="1029" spans="8:10" ht="21" customHeight="1">
       <c r="H1029" s="1"/>
-      <c r="I1029" s="5"/>
+      <c r="I1029" s="6"/>
       <c r="J1029" s="2"/>
     </row>
     <row r="1030" spans="8:10" ht="21" customHeight="1">
       <c r="H1030" s="1"/>
-      <c r="I1030" s="5"/>
+      <c r="I1030" s="6"/>
       <c r="J1030" s="2"/>
     </row>
     <row r="1031" spans="8:10" ht="21" customHeight="1">
       <c r="H1031" s="1"/>
-      <c r="I1031" s="5"/>
+      <c r="I1031" s="6"/>
       <c r="J1031" s="2"/>
     </row>
     <row r="1032" spans="8:10" ht="21" customHeight="1">
       <c r="H1032" s="1"/>
-      <c r="I1032" s="5"/>
+      <c r="I1032" s="6"/>
       <c r="J1032" s="2"/>
     </row>
     <row r="1033" spans="8:10" ht="21" customHeight="1">
       <c r="H1033" s="1"/>
-      <c r="I1033" s="5"/>
+      <c r="I1033" s="6"/>
       <c r="J1033" s="2"/>
     </row>
     <row r="1034" spans="8:10" ht="21" customHeight="1">
       <c r="H1034" s="1"/>
-      <c r="I1034" s="5"/>
+      <c r="I1034" s="6"/>
       <c r="J1034" s="2"/>
     </row>
     <row r="1035" spans="8:10" ht="21" customHeight="1">
       <c r="H1035" s="1"/>
-      <c r="I1035" s="5"/>
+      <c r="I1035" s="6"/>
       <c r="J1035" s="2"/>
     </row>
     <row r="1036" spans="8:10" ht="21" customHeight="1">
       <c r="H1036" s="1"/>
-      <c r="I1036" s="5"/>
+      <c r="I1036" s="6"/>
       <c r="J1036" s="2"/>
     </row>
     <row r="1037" spans="8:10" ht="21" customHeight="1">
       <c r="H1037" s="1"/>
-      <c r="I1037" s="5"/>
+      <c r="I1037" s="6"/>
       <c r="J1037" s="2"/>
     </row>
     <row r="1038" spans="8:10" ht="21" customHeight="1">
       <c r="H1038" s="1"/>
-      <c r="I1038" s="5"/>
+      <c r="I1038" s="6"/>
       <c r="J1038" s="2"/>
     </row>
     <row r="1039" spans="8:10" ht="21" customHeight="1">
       <c r="H1039" s="1"/>
-      <c r="I1039" s="5"/>
+      <c r="I1039" s="6"/>
       <c r="J1039" s="2"/>
     </row>
     <row r="1040" spans="8:10" ht="21" customHeight="1">
       <c r="H1040" s="1"/>
-      <c r="I1040" s="5"/>
+      <c r="I1040" s="6"/>
       <c r="J1040" s="2"/>
     </row>
     <row r="1041" spans="8:10" ht="21" customHeight="1">
       <c r="H1041" s="1"/>
-      <c r="I1041" s="5"/>
+      <c r="I1041" s="6"/>
       <c r="J1041" s="2"/>
     </row>
     <row r="1042" spans="8:10" ht="21" customHeight="1">
       <c r="H1042" s="1"/>
-      <c r="I1042" s="5"/>
+      <c r="I1042" s="6"/>
       <c r="J1042" s="2"/>
     </row>
     <row r="1043" spans="8:10" ht="21" customHeight="1">
       <c r="H1043" s="1"/>
-      <c r="I1043" s="5"/>
+      <c r="I1043" s="6"/>
       <c r="J1043" s="2"/>
     </row>
     <row r="1044" spans="8:10" ht="21" customHeight="1">
       <c r="H1044" s="1"/>
-      <c r="I1044" s="5"/>
+      <c r="I1044" s="6"/>
       <c r="J1044" s="2"/>
     </row>
     <row r="1045" spans="8:10" ht="21" customHeight="1">
       <c r="H1045" s="1"/>
-      <c r="I1045" s="5"/>
+      <c r="I1045" s="6"/>
       <c r="J1045" s="2"/>
     </row>
     <row r="1046" spans="8:10" ht="21" customHeight="1">
       <c r="H1046" s="1"/>
-      <c r="I1046" s="5"/>
+      <c r="I1046" s="6"/>
       <c r="J1046" s="2"/>
     </row>
     <row r="1047" spans="8:10" ht="21" customHeight="1">
       <c r="H1047" s="1"/>
-      <c r="I1047" s="5"/>
+      <c r="I1047" s="6"/>
       <c r="J1047" s="2"/>
     </row>
     <row r="1048" spans="8:10" ht="21" customHeight="1">
       <c r="H1048" s="1"/>
-      <c r="I1048" s="5"/>
+      <c r="I1048" s="6"/>
       <c r="J1048" s="2"/>
     </row>
     <row r="1049" spans="8:10" ht="21" customHeight="1">
       <c r="H1049" s="1"/>
-      <c r="I1049" s="5"/>
+      <c r="I1049" s="6"/>
       <c r="J1049" s="2"/>
     </row>
     <row r="1050" spans="8:10" ht="21" customHeight="1">
       <c r="H1050" s="1"/>
-      <c r="I1050" s="5"/>
+      <c r="I1050" s="6"/>
       <c r="J1050" s="2"/>
     </row>
     <row r="1051" spans="8:10" ht="21" customHeight="1">
       <c r="H1051" s="1"/>
-      <c r="I1051" s="5"/>
+      <c r="I1051" s="6"/>
       <c r="J1051" s="2"/>
     </row>
     <row r="1052" spans="8:10" ht="21" customHeight="1">
       <c r="H1052" s="1"/>
-      <c r="I1052" s="5"/>
+      <c r="I1052" s="6"/>
       <c r="J1052" s="2"/>
     </row>
     <row r="1053" spans="8:10" ht="21" customHeight="1">
       <c r="H1053" s="1"/>
-      <c r="I1053" s="5"/>
+      <c r="I1053" s="6"/>
       <c r="J1053" s="2"/>
     </row>
     <row r="1054" spans="8:10" ht="21" customHeight="1">
       <c r="H1054" s="1"/>
-      <c r="I1054" s="5"/>
+      <c r="I1054" s="6"/>
       <c r="J1054" s="2"/>
     </row>
     <row r="1055" spans="8:10" ht="21" customHeight="1">
       <c r="H1055" s="1"/>
-      <c r="I1055" s="5"/>
+      <c r="I1055" s="6"/>
       <c r="J1055" s="2"/>
     </row>
     <row r="1056" spans="8:10" ht="21" customHeight="1">
       <c r="H1056" s="1"/>
-      <c r="I1056" s="5"/>
+      <c r="I1056" s="6"/>
       <c r="J1056" s="2"/>
     </row>
     <row r="1057" spans="8:10" ht="21" customHeight="1">
       <c r="H1057" s="1"/>
-      <c r="I1057" s="5"/>
+      <c r="I1057" s="6"/>
       <c r="J1057" s="2"/>
     </row>
     <row r="1058" spans="8:10" ht="21" customHeight="1">
       <c r="H1058" s="1"/>
-      <c r="I1058" s="5"/>
+      <c r="I1058" s="6"/>
       <c r="J1058" s="2"/>
     </row>
     <row r="1059" spans="8:10" ht="21" customHeight="1">
       <c r="H1059" s="1"/>
-      <c r="I1059" s="5"/>
+      <c r="I1059" s="6"/>
       <c r="J1059" s="2"/>
     </row>
     <row r="1060" spans="8:10" ht="21" customHeight="1">
       <c r="H1060" s="1"/>
-      <c r="I1060" s="5"/>
+      <c r="I1060" s="6"/>
       <c r="J1060" s="2"/>
     </row>
     <row r="1061" spans="8:10" ht="21" customHeight="1">
       <c r="H1061" s="1"/>
-      <c r="I1061" s="5"/>
+      <c r="I1061" s="6"/>
       <c r="J1061" s="2"/>
     </row>
     <row r="1062" spans="8:10" ht="21" customHeight="1">
       <c r="H1062" s="1"/>
-      <c r="I1062" s="5"/>
+      <c r="I1062" s="6"/>
       <c r="J1062" s="2"/>
     </row>
     <row r="1063" spans="8:10" ht="21" customHeight="1">
       <c r="H1063" s="1"/>
-      <c r="I1063" s="5"/>
+      <c r="I1063" s="6"/>
       <c r="J1063" s="2"/>
     </row>
     <row r="1064" spans="8:10" ht="21" customHeight="1">
       <c r="H1064" s="1"/>
-      <c r="I1064" s="5"/>
+      <c r="I1064" s="6"/>
       <c r="J1064" s="2"/>
     </row>
     <row r="1065" spans="8:10" ht="21" customHeight="1">
       <c r="H1065" s="1"/>
-      <c r="I1065" s="5"/>
+      <c r="I1065" s="6"/>
       <c r="J1065" s="2"/>
     </row>
     <row r="1066" spans="8:10" ht="21" customHeight="1">
       <c r="H1066" s="1"/>
-      <c r="I1066" s="5"/>
+      <c r="I1066" s="6"/>
       <c r="J1066" s="2"/>
     </row>
     <row r="1067" spans="8:10" ht="21" customHeight="1">
       <c r="H1067" s="1"/>
-      <c r="I1067" s="5"/>
+      <c r="I1067" s="6"/>
       <c r="J1067" s="2"/>
     </row>
     <row r="1068" spans="8:10" ht="21" customHeight="1">
       <c r="H1068" s="1"/>
-      <c r="I1068" s="5"/>
+      <c r="I1068" s="6"/>
       <c r="J1068" s="2"/>
     </row>
     <row r="1069" spans="8:10" ht="21" customHeight="1">
       <c r="H1069" s="1"/>
-      <c r="I1069" s="5"/>
+      <c r="I1069" s="6"/>
       <c r="J1069" s="2"/>
     </row>
     <row r="1070" spans="8:10" ht="21" customHeight="1">
       <c r="H1070" s="1"/>
-      <c r="I1070" s="5"/>
+      <c r="I1070" s="6"/>
       <c r="J1070" s="2"/>
     </row>
     <row r="1071" spans="8:10" ht="21" customHeight="1">
       <c r="H1071" s="1"/>
-      <c r="I1071" s="5"/>
+      <c r="I1071" s="6"/>
       <c r="J1071" s="2"/>
     </row>
     <row r="1072" spans="8:10" ht="21" customHeight="1">
       <c r="H1072" s="1"/>
-      <c r="I1072" s="5"/>
+      <c r="I1072" s="6"/>
       <c r="J1072" s="2"/>
     </row>
     <row r="1073" spans="8:10" ht="21" customHeight="1">
       <c r="H1073" s="1"/>
-      <c r="I1073" s="5"/>
+      <c r="I1073" s="6"/>
       <c r="J1073" s="2"/>
     </row>
     <row r="1074" spans="8:10" ht="21" customHeight="1">
       <c r="H1074" s="1"/>
-      <c r="I1074" s="5"/>
+      <c r="I1074" s="6"/>
       <c r="J1074" s="2"/>
     </row>
     <row r="1075" spans="8:10" ht="21" customHeight="1">
       <c r="H1075" s="1"/>
-      <c r="I1075" s="5"/>
+      <c r="I1075" s="6"/>
       <c r="J1075" s="2"/>
     </row>
     <row r="1076" spans="8:10" ht="21" customHeight="1">
       <c r="H1076" s="1"/>
-      <c r="I1076" s="5"/>
+      <c r="I1076" s="6"/>
       <c r="J1076" s="2"/>
     </row>
     <row r="1077" spans="8:10" ht="21" customHeight="1">
       <c r="H1077" s="1"/>
-      <c r="I1077" s="5"/>
+      <c r="I1077" s="6"/>
       <c r="J1077" s="2"/>
     </row>
     <row r="1078" spans="8:10" ht="21" customHeight="1">
       <c r="H1078" s="1"/>
-      <c r="I1078" s="5"/>
+      <c r="I1078" s="6"/>
       <c r="J1078" s="2"/>
     </row>
     <row r="1079" spans="8:10" ht="21" customHeight="1">
       <c r="H1079" s="1"/>
-      <c r="I1079" s="5"/>
+      <c r="I1079" s="6"/>
       <c r="J1079" s="2"/>
     </row>
     <row r="1080" spans="8:10" ht="21" customHeight="1">
       <c r="H1080" s="1"/>
-      <c r="I1080" s="5"/>
+      <c r="I1080" s="6"/>
       <c r="J1080" s="2"/>
     </row>
     <row r="1081" spans="8:10" ht="21" customHeight="1">
       <c r="H1081" s="1"/>
-      <c r="I1081" s="5"/>
+      <c r="I1081" s="6"/>
       <c r="J1081" s="2"/>
     </row>
     <row r="1082" spans="8:10" ht="21" customHeight="1">
       <c r="H1082" s="1"/>
-      <c r="I1082" s="5"/>
+      <c r="I1082" s="6"/>
       <c r="J1082" s="2"/>
     </row>
     <row r="1083" spans="8:10" ht="21" customHeight="1">
       <c r="H1083" s="1"/>
-      <c r="I1083" s="5"/>
+      <c r="I1083" s="6"/>
       <c r="J1083" s="2"/>
     </row>
     <row r="1084" spans="8:10" ht="21" customHeight="1">
       <c r="H1084" s="1"/>
-      <c r="I1084" s="5"/>
+      <c r="I1084" s="6"/>
       <c r="J1084" s="2"/>
     </row>
     <row r="1085" spans="8:10" ht="21" customHeight="1">
       <c r="H1085" s="1"/>
-      <c r="I1085" s="5"/>
+      <c r="I1085" s="6"/>
       <c r="J1085" s="2"/>
     </row>
     <row r="1086" spans="8:10" ht="21" customHeight="1">
       <c r="H1086" s="1"/>
-      <c r="I1086" s="5"/>
+      <c r="I1086" s="6"/>
       <c r="J1086" s="2"/>
     </row>
     <row r="1087" spans="8:10" ht="21" customHeight="1">
       <c r="H1087" s="1"/>
-      <c r="I1087" s="5"/>
+      <c r="I1087" s="6"/>
       <c r="J1087" s="2"/>
     </row>
     <row r="1088" spans="8:10" ht="21" customHeight="1">
       <c r="H1088" s="1"/>
-      <c r="I1088" s="5"/>
+      <c r="I1088" s="6"/>
       <c r="J1088" s="2"/>
     </row>
     <row r="1089" spans="8:10" ht="21" customHeight="1">
       <c r="H1089" s="1"/>
-      <c r="I1089" s="5"/>
+      <c r="I1089" s="6"/>
       <c r="J1089" s="2"/>
     </row>
     <row r="1090" spans="8:10" ht="21" customHeight="1">
       <c r="H1090" s="1"/>
-      <c r="I1090" s="5"/>
+      <c r="I1090" s="6"/>
       <c r="J1090" s="2"/>
     </row>
     <row r="1091" spans="8:10" ht="21" customHeight="1">
       <c r="H1091" s="1"/>
-      <c r="I1091" s="5"/>
+      <c r="I1091" s="6"/>
       <c r="J1091" s="2"/>
     </row>
     <row r="1092" spans="8:10" ht="21" customHeight="1">
       <c r="H1092" s="1"/>
-      <c r="I1092" s="5"/>
+      <c r="I1092" s="6"/>
       <c r="J1092" s="2"/>
     </row>
     <row r="1093" spans="8:10" ht="21" customHeight="1">
       <c r="H1093" s="1"/>
-      <c r="I1093" s="5"/>
+      <c r="I1093" s="6"/>
       <c r="J1093" s="2"/>
     </row>
     <row r="1094" spans="8:10" ht="21" customHeight="1">
       <c r="H1094" s="1"/>
-      <c r="I1094" s="5"/>
+      <c r="I1094" s="6"/>
       <c r="J1094" s="2"/>
     </row>
     <row r="1095" spans="8:10" ht="21" customHeight="1">
       <c r="H1095" s="1"/>
-      <c r="I1095" s="5"/>
+      <c r="I1095" s="6"/>
       <c r="J1095" s="2"/>
     </row>
     <row r="1096" spans="8:10" ht="21" customHeight="1">
       <c r="H1096" s="1"/>
-      <c r="I1096" s="5"/>
+      <c r="I1096" s="6"/>
       <c r="J1096" s="2"/>
     </row>
     <row r="1097" spans="8:10" ht="21" customHeight="1">
       <c r="H1097" s="1"/>
-      <c r="I1097" s="5"/>
+      <c r="I1097" s="6"/>
       <c r="J1097" s="2"/>
     </row>
     <row r="1098" spans="8:10" ht="21" customHeight="1">
       <c r="H1098" s="1"/>
-      <c r="I1098" s="5"/>
+      <c r="I1098" s="6"/>
       <c r="J1098" s="2"/>
     </row>
     <row r="1099" spans="8:10" ht="21" customHeight="1">
       <c r="H1099" s="1"/>
-      <c r="I1099" s="5"/>
+      <c r="I1099" s="6"/>
       <c r="J1099" s="2"/>
     </row>
     <row r="1100" spans="8:10" ht="21" customHeight="1">
       <c r="H1100" s="1"/>
-      <c r="I1100" s="5"/>
+      <c r="I1100" s="6"/>
       <c r="J1100" s="2"/>
     </row>
     <row r="1101" spans="8:10" ht="21" customHeight="1">
       <c r="H1101" s="1"/>
-      <c r="I1101" s="5"/>
+      <c r="I1101" s="6"/>
       <c r="J1101" s="2"/>
     </row>
     <row r="1102" spans="8:10" ht="21" customHeight="1">
       <c r="H1102" s="1"/>
-      <c r="I1102" s="5"/>
+      <c r="I1102" s="6"/>
       <c r="J1102" s="2"/>
     </row>
     <row r="1103" spans="8:10" ht="21" customHeight="1">
       <c r="H1103" s="1"/>
-      <c r="I1103" s="5"/>
+      <c r="I1103" s="6"/>
       <c r="J1103" s="2"/>
     </row>
     <row r="1104" spans="8:10" ht="21" customHeight="1">
       <c r="H1104" s="1"/>
-      <c r="I1104" s="5"/>
+      <c r="I1104" s="6"/>
       <c r="J1104" s="2"/>
     </row>
     <row r="1105" spans="8:10" ht="21" customHeight="1">
       <c r="H1105" s="1"/>
-      <c r="I1105" s="5"/>
+      <c r="I1105" s="6"/>
       <c r="J1105" s="2"/>
     </row>
     <row r="1106" spans="8:10" ht="21" customHeight="1">
       <c r="H1106" s="1"/>
-      <c r="I1106" s="5"/>
+      <c r="I1106" s="6"/>
       <c r="J1106" s="2"/>
     </row>
     <row r="1107" spans="8:10" ht="21" customHeight="1">
       <c r="H1107" s="1"/>
-      <c r="I1107" s="5"/>
+      <c r="I1107" s="6"/>
       <c r="J1107" s="2"/>
     </row>
     <row r="1108" spans="8:10" ht="21" customHeight="1">
       <c r="H1108" s="1"/>
-      <c r="I1108" s="5"/>
+      <c r="I1108" s="6"/>
       <c r="J1108" s="2"/>
     </row>
     <row r="1109" spans="8:10" ht="21" customHeight="1">
       <c r="H1109" s="1"/>
-      <c r="I1109" s="5"/>
+      <c r="I1109" s="6"/>
       <c r="J1109" s="2"/>
     </row>
     <row r="1110" spans="8:10" ht="21" customHeight="1">
       <c r="H1110" s="1"/>
-      <c r="I1110" s="5"/>
+      <c r="I1110" s="6"/>
       <c r="J1110" s="2"/>
     </row>
     <row r="1111" spans="8:10" ht="21" customHeight="1">
       <c r="H1111" s="1"/>
-      <c r="I1111" s="5"/>
+      <c r="I1111" s="6"/>
       <c r="J1111" s="2"/>
     </row>
     <row r="1112" spans="8:10" ht="21" customHeight="1">
       <c r="H1112" s="1"/>
-      <c r="I1112" s="5"/>
+      <c r="I1112" s="6"/>
       <c r="J1112" s="2"/>
     </row>
     <row r="1113" spans="8:10" ht="21" customHeight="1">
       <c r="H1113" s="1"/>
-      <c r="I1113" s="5"/>
+      <c r="I1113" s="6"/>
       <c r="J1113" s="2"/>
     </row>
     <row r="1114" spans="8:10" ht="21" customHeight="1">
       <c r="H1114" s="1"/>
-      <c r="I1114" s="5"/>
+      <c r="I1114" s="6"/>
       <c r="J1114" s="2"/>
     </row>
     <row r="1115" spans="8:10" ht="21" customHeight="1">
       <c r="H1115" s="1"/>
-      <c r="I1115" s="5"/>
+      <c r="I1115" s="6"/>
       <c r="J1115" s="2"/>
     </row>
     <row r="1116" spans="8:10" ht="21" customHeight="1">
       <c r="H1116" s="1"/>
-      <c r="I1116" s="5"/>
+      <c r="I1116" s="6"/>
       <c r="J1116" s="2"/>
     </row>
     <row r="1117" spans="8:10" ht="21" customHeight="1">
       <c r="H1117" s="1"/>
-      <c r="I1117" s="5"/>
+      <c r="I1117" s="6"/>
       <c r="J1117" s="2"/>
     </row>
     <row r="1118" spans="8:10" ht="21" customHeight="1">
       <c r="H1118" s="1"/>
-      <c r="I1118" s="5"/>
+      <c r="I1118" s="6"/>
       <c r="J1118" s="2"/>
     </row>
     <row r="1119" spans="8:10" ht="21" customHeight="1">
       <c r="H1119" s="1"/>
-      <c r="I1119" s="5"/>
+      <c r="I1119" s="6"/>
       <c r="J1119" s="2"/>
     </row>
     <row r="1120" spans="8:10" ht="21" customHeight="1">
       <c r="H1120" s="1"/>
-      <c r="I1120" s="5"/>
+      <c r="I1120" s="6"/>
       <c r="J1120" s="2"/>
     </row>
     <row r="1121" spans="8:10" ht="21" customHeight="1">
       <c r="H1121" s="1"/>
-      <c r="I1121" s="5"/>
+      <c r="I1121" s="6"/>
       <c r="J1121" s="2"/>
     </row>
     <row r="1122" spans="8:10" ht="21" customHeight="1">
       <c r="H1122" s="1"/>
-      <c r="I1122" s="5"/>
+      <c r="I1122" s="6"/>
       <c r="J1122" s="2"/>
     </row>
     <row r="1123" spans="8:10" ht="21" customHeight="1">
       <c r="H1123" s="1"/>
-      <c r="I1123" s="5"/>
+      <c r="I1123" s="6"/>
       <c r="J1123" s="2"/>
     </row>
     <row r="1124" spans="8:10" ht="21" customHeight="1">
       <c r="H1124" s="1"/>
-      <c r="I1124" s="5"/>
+      <c r="I1124" s="6"/>
       <c r="J1124" s="2"/>
     </row>
     <row r="1125" spans="8:10" ht="21" customHeight="1">
       <c r="H1125" s="1"/>
-      <c r="I1125" s="5"/>
+      <c r="I1125" s="6"/>
       <c r="J1125" s="2"/>
     </row>
     <row r="1126" spans="8:10" ht="21" customHeight="1">
       <c r="H1126" s="1"/>
-      <c r="I1126" s="5"/>
+      <c r="I1126" s="6"/>
       <c r="J1126" s="2"/>
     </row>
     <row r="1127" spans="8:10" ht="21" customHeight="1">
       <c r="H1127" s="1"/>
-      <c r="I1127" s="5"/>
+      <c r="I1127" s="6"/>
       <c r="J1127" s="2"/>
     </row>
     <row r="1128" spans="8:10" ht="21" customHeight="1">
       <c r="H1128" s="1"/>
-      <c r="I1128" s="5"/>
+      <c r="I1128" s="6"/>
       <c r="J1128" s="2"/>
     </row>
     <row r="1129" spans="8:10" ht="21" customHeight="1">
       <c r="H1129" s="1"/>
-      <c r="I1129" s="5"/>
+      <c r="I1129" s="6"/>
       <c r="J1129" s="2"/>
     </row>
     <row r="1130" spans="8:10" ht="21" customHeight="1">
       <c r="H1130" s="1"/>
-      <c r="I1130" s="5"/>
+      <c r="I1130" s="6"/>
       <c r="J1130" s="2"/>
     </row>
     <row r="1131" spans="8:10" ht="21" customHeight="1">
       <c r="H1131" s="1"/>
-      <c r="I1131" s="5"/>
+      <c r="I1131" s="6"/>
       <c r="J1131" s="2"/>
     </row>
     <row r="1132" spans="8:10" ht="21" customHeight="1">
       <c r="H1132" s="1"/>
-      <c r="I1132" s="5"/>
+      <c r="I1132" s="6"/>
       <c r="J1132" s="2"/>
     </row>
     <row r="1133" spans="8:10" ht="21" customHeight="1">
       <c r="H1133" s="1"/>
-      <c r="I1133" s="5"/>
+      <c r="I1133" s="6"/>
       <c r="J1133" s="2"/>
     </row>
     <row r="1134" spans="8:10" ht="21" customHeight="1">
       <c r="H1134" s="1"/>
-      <c r="I1134" s="5"/>
+      <c r="I1134" s="6"/>
       <c r="J1134" s="2"/>
     </row>
     <row r="1135" spans="8:10" ht="21" customHeight="1">
       <c r="H1135" s="1"/>
-      <c r="I1135" s="5"/>
+      <c r="I1135" s="6"/>
       <c r="J1135" s="2"/>
     </row>
     <row r="1136" spans="8:10" ht="21" customHeight="1">
       <c r="H1136" s="1"/>
-      <c r="I1136" s="5"/>
+      <c r="I1136" s="6"/>
       <c r="J1136" s="2"/>
     </row>
     <row r="1137" spans="8:10" ht="21" customHeight="1">
       <c r="H1137" s="1"/>
-      <c r="I1137" s="5"/>
+      <c r="I1137" s="6"/>
       <c r="J1137" s="2"/>
     </row>
     <row r="1138" spans="8:10" ht="21" customHeight="1">
       <c r="H1138" s="1"/>
-      <c r="I1138" s="5"/>
+      <c r="I1138" s="6"/>
       <c r="J1138" s="2"/>
     </row>
     <row r="1139" spans="8:10" ht="21" customHeight="1">
       <c r="H1139" s="1"/>
-      <c r="I1139" s="5"/>
+      <c r="I1139" s="6"/>
       <c r="J1139" s="2"/>
     </row>
     <row r="1140" spans="8:10" ht="21" customHeight="1">
       <c r="H1140" s="1"/>
-      <c r="I1140" s="5"/>
+      <c r="I1140" s="6"/>
       <c r="J1140" s="2"/>
     </row>
     <row r="1141" spans="8:10" ht="21" customHeight="1">
       <c r="H1141" s="1"/>
-      <c r="I1141" s="5"/>
+      <c r="I1141" s="6"/>
       <c r="J1141" s="2"/>
     </row>
     <row r="1142" spans="8:10" ht="21" customHeight="1">
       <c r="H1142" s="1"/>
-      <c r="I1142" s="5"/>
+      <c r="I1142" s="6"/>
       <c r="J1142" s="2"/>
     </row>
     <row r="1143" spans="8:10" ht="21" customHeight="1">
       <c r="H1143" s="1"/>
-      <c r="I1143" s="5"/>
+      <c r="I1143" s="6"/>
       <c r="J1143" s="2"/>
     </row>
     <row r="1144" spans="8:10" ht="21" customHeight="1">
       <c r="H1144" s="1"/>
-      <c r="I1144" s="5"/>
+      <c r="I1144" s="6"/>
       <c r="J1144" s="2"/>
     </row>
     <row r="1145" spans="8:10" ht="21" customHeight="1">
       <c r="H1145" s="1"/>
-      <c r="I1145" s="5"/>
+      <c r="I1145" s="6"/>
       <c r="J1145" s="2"/>
     </row>
     <row r="1146" spans="8:10" ht="21" customHeight="1">
       <c r="H1146" s="1"/>
-      <c r="I1146" s="5"/>
+      <c r="I1146" s="6"/>
       <c r="J1146" s="2"/>
     </row>
     <row r="1147" spans="8:10" ht="21" customHeight="1">
       <c r="H1147" s="1"/>
-      <c r="I1147" s="5"/>
+      <c r="I1147" s="6"/>
       <c r="J1147" s="2"/>
     </row>
     <row r="1148" spans="8:10" ht="21" customHeight="1">
       <c r="H1148" s="1"/>
-      <c r="I1148" s="5"/>
+      <c r="I1148" s="6"/>
       <c r="J1148" s="2"/>
     </row>
     <row r="1149" spans="8:10" ht="21" customHeight="1">
       <c r="H1149" s="1"/>
-      <c r="I1149" s="5"/>
+      <c r="I1149" s="6"/>
       <c r="J1149" s="2"/>
     </row>
     <row r="1150" spans="8:10" ht="21" customHeight="1">
       <c r="H1150" s="1"/>
-      <c r="I1150" s="5"/>
+      <c r="I1150" s="6"/>
       <c r="J1150" s="2"/>
     </row>
     <row r="1151" spans="8:10" ht="21" customHeight="1">
       <c r="H1151" s="1"/>
-      <c r="I1151" s="5"/>
+      <c r="I1151" s="6"/>
       <c r="J1151" s="2"/>
     </row>
     <row r="1152" spans="8:10" ht="21" customHeight="1">
       <c r="H1152" s="1"/>
-      <c r="I1152" s="5"/>
+      <c r="I1152" s="6"/>
       <c r="J1152" s="2"/>
     </row>
     <row r="1153" spans="8:10" ht="21" customHeight="1">
       <c r="H1153" s="1"/>
-      <c r="I1153" s="5"/>
+      <c r="I1153" s="6"/>
       <c r="J1153" s="2"/>
     </row>
     <row r="1154" spans="8:10" ht="21" customHeight="1">
       <c r="H1154" s="1"/>
-      <c r="I1154" s="5"/>
+      <c r="I1154" s="6"/>
       <c r="J1154" s="2"/>
     </row>
     <row r="1155" spans="8:10" ht="21" customHeight="1">
       <c r="H1155" s="1"/>
-      <c r="I1155" s="5"/>
+      <c r="I1155" s="6"/>
       <c r="J1155" s="2"/>
     </row>
     <row r="1156" spans="8:10" ht="21" customHeight="1">
       <c r="H1156" s="1"/>
-      <c r="I1156" s="5"/>
+      <c r="I1156" s="6"/>
       <c r="J1156" s="2"/>
     </row>
     <row r="1157" spans="8:10" ht="21" customHeight="1">
       <c r="H1157" s="1"/>
-      <c r="I1157" s="5"/>
+      <c r="I1157" s="6"/>
       <c r="J1157" s="2"/>
     </row>
     <row r="1158" spans="8:10" ht="21" customHeight="1">
       <c r="H1158" s="1"/>
-      <c r="I1158" s="5"/>
+      <c r="I1158" s="6"/>
       <c r="J1158" s="2"/>
     </row>
     <row r="1159" spans="8:10" ht="21" customHeight="1">
       <c r="H1159" s="1"/>
-      <c r="I1159" s="5"/>
+      <c r="I1159" s="6"/>
       <c r="J1159" s="2"/>
     </row>
     <row r="1160" spans="8:10" ht="21" customHeight="1">
       <c r="H1160" s="1"/>
-      <c r="I1160" s="5"/>
+      <c r="I1160" s="6"/>
       <c r="J1160" s="2"/>
     </row>
     <row r="1161" spans="8:10" ht="21" customHeight="1">
       <c r="H1161" s="1"/>
-      <c r="I1161" s="5"/>
+      <c r="I1161" s="6"/>
       <c r="J1161" s="2"/>
     </row>
     <row r="1162" spans="8:10" ht="21" customHeight="1">
       <c r="H1162" s="1"/>
-      <c r="I1162" s="5"/>
+      <c r="I1162" s="6"/>
       <c r="J1162" s="2"/>
     </row>
     <row r="1163" spans="8:10" ht="21" customHeight="1">
       <c r="H1163" s="1"/>
-      <c r="I1163" s="5"/>
+      <c r="I1163" s="6"/>
       <c r="J1163" s="2"/>
     </row>
     <row r="1164" spans="8:10" ht="21" customHeight="1">
       <c r="H1164" s="1"/>
-      <c r="I1164" s="5"/>
+      <c r="I1164" s="6"/>
       <c r="J1164" s="2"/>
     </row>
     <row r="1165" spans="8:10" ht="21" customHeight="1">
       <c r="H1165" s="1"/>
-      <c r="I1165" s="5"/>
+      <c r="I1165" s="6"/>
       <c r="J1165" s="2"/>
     </row>
     <row r="1166" spans="8:10" ht="21" customHeight="1">
       <c r="H1166" s="1"/>
-      <c r="I1166" s="5"/>
+      <c r="I1166" s="6"/>
       <c r="J1166" s="2"/>
     </row>
     <row r="1167" spans="8:10" ht="21" customHeight="1">
       <c r="H1167" s="1"/>
-      <c r="I1167" s="5"/>
+      <c r="I1167" s="6"/>
       <c r="J1167" s="2"/>
     </row>
     <row r="1168" spans="8:10" ht="21" customHeight="1">
       <c r="H1168" s="1"/>
-      <c r="I1168" s="5"/>
+      <c r="I1168" s="6"/>
       <c r="J1168" s="2"/>
     </row>
     <row r="1169" spans="8:10" ht="21" customHeight="1">
       <c r="H1169" s="1"/>
-      <c r="I1169" s="5"/>
+      <c r="I1169" s="6"/>
       <c r="J1169" s="2"/>
     </row>
     <row r="1170" spans="8:10" ht="21" customHeight="1">
       <c r="H1170" s="1"/>
-      <c r="I1170" s="5"/>
+      <c r="I1170" s="6"/>
       <c r="J1170" s="2"/>
     </row>
     <row r="1171" spans="8:10" ht="21" customHeight="1">
       <c r="H1171" s="1"/>
-      <c r="I1171" s="5"/>
+      <c r="I1171" s="6"/>
       <c r="J1171" s="2"/>
     </row>
     <row r="1172" spans="8:10" ht="21" customHeight="1">
       <c r="H1172" s="1"/>
-      <c r="I1172" s="5"/>
+      <c r="I1172" s="6"/>
       <c r="J1172" s="2"/>
     </row>
     <row r="1173" spans="8:10" ht="21" customHeight="1">
       <c r="H1173" s="1"/>
-      <c r="I1173" s="5"/>
+      <c r="I1173" s="6"/>
       <c r="J1173" s="2"/>
     </row>
     <row r="1174" spans="8:10" ht="21" customHeight="1">
       <c r="H1174" s="1"/>
-      <c r="I1174" s="5"/>
+      <c r="I1174" s="6"/>
       <c r="J1174" s="2"/>
     </row>
     <row r="1175" spans="8:10" ht="21" customHeight="1">
       <c r="H1175" s="1"/>
-      <c r="I1175" s="5"/>
+      <c r="I1175" s="6"/>
       <c r="J1175" s="2"/>
     </row>
     <row r="1176" spans="8:10" ht="21" customHeight="1">
       <c r="H1176" s="1"/>
-      <c r="I1176" s="5"/>
+      <c r="I1176" s="6"/>
       <c r="J1176" s="2"/>
     </row>
     <row r="1177" spans="8:10" ht="21" customHeight="1">
       <c r="H1177" s="1"/>
-      <c r="I1177" s="5"/>
+      <c r="I1177" s="6"/>
       <c r="J1177" s="2"/>
     </row>
     <row r="1178" spans="8:10" ht="21" customHeight="1">
       <c r="H1178" s="1"/>
-      <c r="I1178" s="5"/>
+      <c r="I1178" s="6"/>
       <c r="J1178" s="2"/>
     </row>
     <row r="1179" spans="8:10" ht="21" customHeight="1">
       <c r="H1179" s="1"/>
-      <c r="I1179" s="5"/>
+      <c r="I1179" s="6"/>
       <c r="J1179" s="2"/>
     </row>
     <row r="1180" spans="8:10" ht="21" customHeight="1">
       <c r="H1180" s="1"/>
-      <c r="I1180" s="5"/>
+      <c r="I1180" s="6"/>
       <c r="J1180" s="2"/>
     </row>
     <row r="1181" spans="8:10" ht="21" customHeight="1">
       <c r="H1181" s="1"/>
-      <c r="I1181" s="5"/>
+      <c r="I1181" s="6"/>
       <c r="J1181" s="2"/>
     </row>
     <row r="1182" spans="8:10" ht="21" customHeight="1">
       <c r="H1182" s="1"/>
-      <c r="I1182" s="5"/>
+      <c r="I1182" s="6"/>
       <c r="J1182" s="2"/>
     </row>
     <row r="1183" spans="8:10" ht="21" customHeight="1">
       <c r="H1183" s="1"/>
-      <c r="I1183" s="5"/>
+      <c r="I1183" s="6"/>
       <c r="J1183" s="2"/>
     </row>
     <row r="1184" spans="8:10" ht="21" customHeight="1">
       <c r="H1184" s="1"/>
-      <c r="I1184" s="5"/>
+      <c r="I1184" s="6"/>
       <c r="J1184" s="2"/>
     </row>
     <row r="1185" spans="8:10" ht="21" customHeight="1">
       <c r="H1185" s="1"/>
-      <c r="I1185" s="5"/>
+      <c r="I1185" s="6"/>
       <c r="J1185" s="2"/>
     </row>
     <row r="1186" spans="8:10" ht="21" customHeight="1">
       <c r="H1186" s="1"/>
-      <c r="I1186" s="5"/>
+      <c r="I1186" s="6"/>
       <c r="J1186" s="2"/>
     </row>
     <row r="1187" spans="8:10" ht="21" customHeight="1">
       <c r="H1187" s="1"/>
-      <c r="I1187" s="5"/>
+      <c r="I1187" s="6"/>
       <c r="J1187" s="2"/>
     </row>
     <row r="1188" spans="8:10" ht="21" customHeight="1">
       <c r="H1188" s="1"/>
-      <c r="I1188" s="5"/>
+      <c r="I1188" s="6"/>
       <c r="J1188" s="2"/>
     </row>
     <row r="1189" spans="8:10" ht="21" customHeight="1">
       <c r="H1189" s="1"/>
-      <c r="I1189" s="5"/>
+      <c r="I1189" s="6"/>
       <c r="J1189" s="2"/>
     </row>
     <row r="1190" spans="8:10" ht="21" customHeight="1">
       <c r="H1190" s="1"/>
-      <c r="I1190" s="5"/>
+      <c r="I1190" s="6"/>
       <c r="J1190" s="2"/>
     </row>
     <row r="1191" spans="8:10" ht="21" customHeight="1">
       <c r="H1191" s="1"/>
-      <c r="I1191" s="5"/>
+      <c r="I1191" s="6"/>
       <c r="J1191" s="2"/>
     </row>
     <row r="1192" spans="8:10" ht="21" customHeight="1">
       <c r="H1192" s="1"/>
-      <c r="I1192" s="5"/>
+      <c r="I1192" s="6"/>
       <c r="J1192" s="2"/>
     </row>
     <row r="1193" spans="8:10" ht="21" customHeight="1">
       <c r="H1193" s="1"/>
-      <c r="I1193" s="5"/>
+      <c r="I1193" s="6"/>
       <c r="J1193" s="2"/>
     </row>
     <row r="1194" spans="8:10" ht="21" customHeight="1">
       <c r="H1194" s="1"/>
-      <c r="I1194" s="5"/>
+      <c r="I1194" s="6"/>
       <c r="J1194" s="2"/>
     </row>
     <row r="1195" spans="8:10" ht="21" customHeight="1">
       <c r="H1195" s="1"/>
-      <c r="I1195" s="5"/>
+      <c r="I1195" s="6"/>
       <c r="J1195" s="2"/>
     </row>
     <row r="1196" spans="8:10" ht="21" customHeight="1">
       <c r="H1196" s="1"/>
-      <c r="I1196" s="5"/>
+      <c r="I1196" s="6"/>
       <c r="J1196" s="2"/>
     </row>
     <row r="1197" spans="8:10" ht="21" customHeight="1">
       <c r="H1197" s="1"/>
-      <c r="I1197" s="5"/>
+      <c r="I1197" s="6"/>
       <c r="J1197" s="2"/>
     </row>
     <row r="1198" spans="8:10" ht="21" customHeight="1">
       <c r="H1198" s="1"/>
-      <c r="I1198" s="5"/>
+      <c r="I1198" s="6"/>
       <c r="J1198" s="2"/>
     </row>
     <row r="1199" spans="8:10" ht="21" customHeight="1">
       <c r="H1199" s="1"/>
-      <c r="I1199" s="5"/>
+      <c r="I1199" s="6"/>
       <c r="J1199" s="2"/>
     </row>
     <row r="1200" spans="8:10" ht="21" customHeight="1">
       <c r="H1200" s="1"/>
-      <c r="I1200" s="5"/>
+      <c r="I1200" s="6"/>
       <c r="J1200" s="2"/>
     </row>
   </sheetData>
@@ -17135,8 +18045,6 @@
     <mergeCell ref="I679:I680"/>
     <mergeCell ref="I681:I682"/>
     <mergeCell ref="I683:I684"/>
-    <mergeCell ref="I661:I662"/>
-    <mergeCell ref="I663:I664"/>
     <mergeCell ref="I665:I666"/>
     <mergeCell ref="I667:I668"/>
     <mergeCell ref="I669:I670"/>
@@ -17154,6 +18062,8 @@
     <mergeCell ref="I645:I646"/>
     <mergeCell ref="I647:I648"/>
     <mergeCell ref="I635:I636"/>
+    <mergeCell ref="I661:I662"/>
+    <mergeCell ref="I663:I664"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
